--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -622,7 +622,7 @@
     <t>FA_20240408_2H_yeast_1_8</t>
   </si>
   <si>
-    <t>FA_20240215_2H_Yeast_Pyruvate-d3_5.csv</t>
+    <t>FA_20240215_2H_Yeast_Pyruvate-d3_5_2.csv</t>
   </si>
   <si>
     <t>FA _20240215_2H_Yeast_1_5</t>
@@ -786,7 +786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +797,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -834,25 +840,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -860,13 +854,28 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1195,33 +1204,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="62.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="14" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="17" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="17" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="17" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="17" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="62.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="18" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="18" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1240,7 +1249,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1367,9 +1376,9 @@
       <c r="W2" s="7">
         <v>1.201</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1434,10 +1443,10 @@
       <c r="W3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="6">
@@ -1499,10 +1508,10 @@
       <c r="W4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="6">
@@ -1564,10 +1573,10 @@
       <c r="W5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="6">
@@ -1629,10 +1638,10 @@
       <c r="W6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="6">
@@ -1694,10 +1703,10 @@
       <c r="W7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="6">
@@ -1759,10 +1768,10 @@
       <c r="W8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="6">
@@ -1824,10 +1833,10 @@
       <c r="W9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="6">
@@ -1889,10 +1898,10 @@
       <c r="W10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="6">
@@ -1954,10 +1963,10 @@
       <c r="W11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="6">
@@ -2019,10 +2028,10 @@
       <c r="W12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="6">
@@ -2086,10 +2095,10 @@
       <c r="W13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="6">
@@ -2153,10 +2162,10 @@
       <c r="W14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="6">
@@ -2220,10 +2229,10 @@
       <c r="W15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="6">
@@ -2287,10 +2296,10 @@
       <c r="W16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="6">
@@ -2354,10 +2363,10 @@
       <c r="W17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="6">
@@ -2421,10 +2430,10 @@
       <c r="W18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="6">
@@ -2488,10 +2497,10 @@
       <c r="W19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="6">
@@ -2555,10 +2564,10 @@
       <c r="W20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="6">
@@ -2622,10 +2631,10 @@
       <c r="W21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="6">
@@ -2689,10 +2698,10 @@
       <c r="W22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="6">
@@ -2756,10 +2765,10 @@
       <c r="W23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="6">
@@ -2828,9 +2837,9 @@
       <c r="X24" s="6">
         <v>2</v>
       </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="6">
@@ -2899,18 +2908,18 @@
       <c r="X25" s="6">
         <v>2</v>
       </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="3">
@@ -2961,27 +2970,27 @@
       <c r="S26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="3">
         <v>1.25</v>
       </c>
       <c r="X26" s="6">
         <v>2</v>
       </c>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="3">
@@ -3032,18 +3041,18 @@
       <c r="S27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
       <c r="W27" s="3">
         <v>1.25</v>
       </c>
       <c r="X27" s="6">
         <v>2</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="6">
@@ -3111,14 +3120,14 @@
       <c r="W28" s="3">
         <v>1.27</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="11">
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA28" s="5"/>
+      <c r="AA28" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="6">
@@ -3190,16 +3199,16 @@
       <c r="W29" s="3">
         <v>1.27</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA29" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3264,21 +3273,21 @@
       <c r="T30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U30" s="10"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W30" s="3">
         <v>1.27</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y30" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="11">
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3343,21 +3352,21 @@
       <c r="T31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U31" s="10"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W31" s="3">
         <v>1.27</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y31" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="11">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3422,21 +3431,21 @@
       <c r="T32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="10"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W32" s="3">
         <v>1.27</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X32" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y32" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="11">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3501,21 +3510,21 @@
       <c r="T33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="10"/>
+      <c r="U33" s="11"/>
       <c r="V33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W33" s="3">
         <v>1.27</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="11">
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3580,21 +3589,21 @@
       <c r="T34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="10"/>
+      <c r="U34" s="11"/>
       <c r="V34" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W34" s="3">
         <v>1.27</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y34" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="11">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3660,18 +3669,18 @@
       <c r="U35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="10"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="3">
         <v>1.27</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="11">
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA35" s="5"/>
+      <c r="AA35" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="6">
@@ -3743,16 +3752,16 @@
       <c r="W36" s="3">
         <v>1.27</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y36" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA36" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3817,21 +3826,21 @@
       <c r="T37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U37" s="10"/>
+      <c r="U37" s="11"/>
       <c r="V37" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W37" s="3">
         <v>1.27</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y37" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="11">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3896,21 +3905,21 @@
       <c r="T38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U38" s="10"/>
+      <c r="U38" s="11"/>
       <c r="V38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W38" s="3">
         <v>1.27</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X38" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y38" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="11">
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -3933,7 +3942,7 @@
       <c r="F39" s="3">
         <f>E39*D39</f>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3975,21 +3984,21 @@
       <c r="T39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="10"/>
+      <c r="U39" s="11"/>
       <c r="V39" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W39" s="3">
         <v>1.27</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="11">
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4012,7 +4021,7 @@
       <c r="F40" s="3">
         <f>E40*D40</f>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4054,21 +4063,21 @@
       <c r="T40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U40" s="10"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W40" s="3">
         <v>1.27</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X40" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y40" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="11">
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4091,7 +4100,7 @@
       <c r="F41" s="3">
         <f>E41*D41</f>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4133,21 +4142,21 @@
       <c r="T41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U41" s="10"/>
+      <c r="U41" s="11"/>
       <c r="V41" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W41" s="3">
         <v>1.27</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X41" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Y41" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="11">
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4209,24 +4218,24 @@
       <c r="S42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V42" s="10"/>
+      <c r="V42" s="11"/>
       <c r="W42" s="3">
         <v>1.27</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="11">
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA42" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="AA42" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4296,20 +4305,20 @@
       <c r="W43" s="3">
         <v>1.27</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X43" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Y43" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z43" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA43" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4370,25 +4379,25 @@
       <c r="T44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U44" s="10"/>
+      <c r="U44" s="11"/>
       <c r="V44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W44" s="3">
         <v>1.27</v>
       </c>
-      <c r="X44" s="11">
+      <c r="X44" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="11">
+      <c r="Y44" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="11">
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4449,25 +4458,25 @@
       <c r="T45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U45" s="10"/>
+      <c r="U45" s="11"/>
       <c r="V45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W45" s="3">
         <v>1.27</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X45" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y45" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="11">
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4528,25 +4537,25 @@
       <c r="T46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U46" s="10"/>
+      <c r="U46" s="11"/>
       <c r="V46" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W46" s="3">
         <v>1.27</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="11">
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4607,25 +4616,25 @@
       <c r="T47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U47" s="10"/>
+      <c r="U47" s="11"/>
       <c r="V47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W47" s="3">
         <v>1.27</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y47" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="11">
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -4686,25 +4695,25 @@
       <c r="T48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U48" s="10"/>
+      <c r="U48" s="11"/>
       <c r="V48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W48" s="3">
         <v>1.27</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X48" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y48" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="11">
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4768,22 +4777,22 @@
       <c r="U49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V49" s="10"/>
+      <c r="V49" s="11"/>
       <c r="W49" s="3">
         <v>1.27</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X49" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y49" s="12">
         <v>2.3</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z49" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA49" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="AA49" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -4847,29 +4856,29 @@
       <c r="U50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V50" s="10"/>
+      <c r="V50" s="11"/>
       <c r="W50" s="3">
         <v>1.27</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X50" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y50" s="12">
         <v>2.3</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z50" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA50" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="AA50" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D51" s="3">
@@ -4920,27 +4929,27 @@
       <c r="S51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
       <c r="W51" s="3">
         <v>1.23</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X51" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D52" s="3">
@@ -4991,27 +5000,27 @@
       <c r="S52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
       <c r="W52" s="3">
         <v>1.23</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X52" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D53" s="3">
@@ -5064,19 +5073,19 @@
       <c r="W53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="3">
@@ -5129,19 +5138,19 @@
       <c r="W54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="3">
@@ -5194,19 +5203,19 @@
       <c r="W55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D56" s="3">
@@ -5261,19 +5270,19 @@
       <c r="W56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="3">
@@ -5328,19 +5337,19 @@
       <c r="W57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>211</v>
       </c>
       <c r="D58" s="3">
@@ -5395,19 +5404,19 @@
       <c r="W58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D59" s="3">
@@ -5462,19 +5471,19 @@
       <c r="W59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D60" s="3">
@@ -5529,19 +5538,19 @@
       <c r="W60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D61" s="3">
@@ -5596,19 +5605,19 @@
       <c r="W61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="3">
@@ -5663,19 +5672,19 @@
       <c r="W62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D63" s="3">
@@ -5730,19 +5739,19 @@
       <c r="W63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="3">
@@ -5797,19 +5806,19 @@
       <c r="W64" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D65" s="3">
@@ -5864,19 +5873,19 @@
       <c r="W65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D66" s="3">
@@ -5931,19 +5940,19 @@
       <c r="W66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="3">
@@ -5998,19 +6007,19 @@
       <c r="W67" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>234</v>
       </c>
       <c r="D68" s="3">
@@ -6065,19 +6074,19 @@
       <c r="W68" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D69" s="3">
@@ -6130,19 +6139,19 @@
       <c r="W69" s="7">
         <v>1.201</v>
       </c>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D70" s="3">
@@ -6195,10 +6204,10 @@
       <c r="W70" s="7">
         <v>1.201</v>
       </c>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -166,7 +166,7 @@
     <t>Propan-2-ol-d6</t>
   </si>
   <si>
-    <t>-</t>
+    <t/>
   </si>
   <si>
     <t>FA_20240207_2H_yeast_Fumarate-d2_5.csv</t>
@@ -786,19 +786,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -840,12 +834,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -855,28 +855,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -894,7 +879,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,33 +1189,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="62.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="17" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="17" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="18" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="62.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="15" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="15" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="15" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="15" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1303,21 +1288,21 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1344,14 +1329,14 @@
       <c r="I2" s="4">
         <v>15</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>2.323</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>5.06</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>310</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1373,18 +1358,18 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="7">
+      <c r="W2" s="5">
         <v>1.201</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="5" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1411,14 +1396,14 @@
       <c r="I3" s="4">
         <v>15</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>6.653</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>5.6</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>310</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1440,16 +1425,16 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1476,14 +1461,14 @@
       <c r="I4" s="4">
         <v>15</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>6.653</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
         <v>5.63</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>310</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1505,16 +1490,16 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1541,14 +1526,14 @@
       <c r="I5" s="4">
         <v>15</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>6.653</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
         <v>5.63</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>310</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1570,16 +1555,16 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1606,14 +1591,14 @@
       <c r="I6" s="4">
         <v>15</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>6.653</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
         <v>5.89</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>310</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1635,16 +1620,16 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1671,14 +1656,14 @@
       <c r="I7" s="4">
         <v>15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>6.653</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4">
         <v>6</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>310</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1700,16 +1685,16 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1736,14 +1721,14 @@
       <c r="I8" s="4">
         <v>15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>6.653</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
         <v>7.08</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>310</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1765,16 +1750,16 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1801,14 +1786,14 @@
       <c r="I9" s="4">
         <v>15</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>6.653</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
         <v>5.69</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>310</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1830,16 +1815,16 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1866,14 +1851,14 @@
       <c r="I10" s="4">
         <v>15</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>6.653</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
         <v>5.67</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>310</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1895,16 +1880,16 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1931,14 +1916,14 @@
       <c r="I11" s="4">
         <v>15</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>6.653</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>5.97</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>310</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1960,16 +1945,16 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1996,14 +1981,14 @@
       <c r="I12" s="4">
         <v>15</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>6.653</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
         <v>7.11</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>310</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -2025,16 +2010,16 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2061,7 +2046,7 @@
       <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K13" s="3">
@@ -2070,7 +2055,7 @@
       <c r="L13" s="3">
         <v>5.93</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>310</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2092,16 +2077,16 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2128,7 +2113,7 @@
       <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K14" s="3">
@@ -2137,7 +2122,7 @@
       <c r="L14" s="3">
         <v>6.13</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>310</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2159,16 +2144,16 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2195,7 +2180,7 @@
       <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K15" s="3">
@@ -2204,7 +2189,7 @@
       <c r="L15" s="3">
         <v>5.98</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>310</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2226,16 +2211,16 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2262,7 +2247,7 @@
       <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="3">
@@ -2271,7 +2256,7 @@
       <c r="L16" s="3">
         <v>5.92</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>310</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2293,16 +2278,16 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2329,7 +2314,7 @@
       <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K17" s="3">
@@ -2338,7 +2323,7 @@
       <c r="L17" s="3">
         <v>6.48</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>310</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2360,16 +2345,16 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2396,7 +2381,7 @@
       <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K18" s="3">
@@ -2405,7 +2390,7 @@
       <c r="L18" s="3">
         <v>6.29</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>310</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2427,16 +2412,16 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="7" t="s">
+      <c r="W18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2463,7 +2448,7 @@
       <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="3">
@@ -2472,7 +2457,7 @@
       <c r="L19" s="3">
         <v>6.13</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>310</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2494,16 +2479,16 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2530,7 +2515,7 @@
       <c r="I20" s="4">
         <v>5</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K20" s="3">
@@ -2539,7 +2524,7 @@
       <c r="L20" s="3">
         <v>6.04</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>310</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2561,16 +2546,16 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2597,7 +2582,7 @@
       <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K21" s="3">
@@ -2606,7 +2591,7 @@
       <c r="L21" s="3">
         <v>5.95</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>310</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2628,16 +2613,16 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2664,7 +2649,7 @@
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K22" s="3">
@@ -2673,7 +2658,7 @@
       <c r="L22" s="3">
         <v>5.91</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>310</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2695,16 +2680,16 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2731,7 +2716,7 @@
       <c r="I23" s="4">
         <v>5</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K23" s="3">
@@ -2740,7 +2725,7 @@
       <c r="L23" s="3">
         <v>5.89</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>310</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2762,16 +2747,16 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="7" t="s">
+      <c r="W23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2834,15 +2819,15 @@
       <c r="W24" s="3">
         <v>1.25</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="1">
         <v>2</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2905,21 +2890,21 @@
       <c r="W25" s="3">
         <v>1.25</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="1">
         <v>2</v>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="3">
@@ -2940,7 +2925,7 @@
       <c r="I26" s="4">
         <v>15</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>121</v>
       </c>
       <c r="K26" s="3">
@@ -2949,7 +2934,7 @@
       <c r="L26" s="3">
         <v>5.52</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>310</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2970,27 +2955,27 @@
       <c r="S26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="3">
         <v>1.25</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="1">
         <v>2</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="3">
@@ -3011,7 +2996,7 @@
       <c r="I27" s="4">
         <v>15</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="K27" s="3">
@@ -3020,7 +3005,7 @@
       <c r="L27" s="3">
         <v>5.49</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>310</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3041,21 +3026,21 @@
       <c r="S27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="3">
         <v>1.25</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="1">
         <v>2</v>
       </c>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3091,7 +3076,7 @@
       <c r="L28" s="3">
         <v>5.81</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>310</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3120,17 +3105,17 @@
       <c r="W28" s="3">
         <v>1.27</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="12">
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3166,7 +3151,7 @@
       <c r="L29" s="3">
         <v>5.9</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="6">
         <v>310</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3199,21 +3184,21 @@
       <c r="W29" s="3">
         <v>1.27</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z29" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3249,7 +3234,7 @@
       <c r="L30" s="4">
         <v>6</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>310</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3273,26 +3258,26 @@
       <c r="T30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U30" s="11"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W30" s="3">
         <v>1.27</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="12">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3328,7 +3313,7 @@
       <c r="L31" s="3">
         <v>6.15</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>310</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3352,26 +3337,26 @@
       <c r="T31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U31" s="11"/>
+      <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W31" s="3">
         <v>1.27</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y31" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="12">
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3407,7 +3392,7 @@
       <c r="L32" s="3">
         <v>6.25</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <v>310</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3431,26 +3416,26 @@
       <c r="T32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="11"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W32" s="3">
         <v>1.27</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="12">
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3486,7 +3471,7 @@
       <c r="L33" s="3">
         <v>6.21</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="6">
         <v>310</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3510,26 +3495,26 @@
       <c r="T33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="11"/>
+      <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W33" s="3">
         <v>1.27</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="12">
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3565,7 +3550,7 @@
       <c r="L34" s="3">
         <v>6.32</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="6">
         <v>310</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3589,26 +3574,26 @@
       <c r="T34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="11"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W34" s="3">
         <v>1.27</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Y34" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="12">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3644,7 +3629,7 @@
       <c r="L35" s="3">
         <v>5.79</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="6">
         <v>310</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3669,21 +3654,21 @@
       <c r="U35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="2"/>
       <c r="W35" s="3">
         <v>1.27</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="12">
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3719,7 +3704,7 @@
       <c r="L36" s="3">
         <v>5.88</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="6">
         <v>310</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3752,21 +3737,21 @@
       <c r="W36" s="3">
         <v>1.27</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y36" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z36" s="12">
+      <c r="Z36" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA36" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3802,7 +3787,7 @@
       <c r="L37" s="3">
         <v>5.99</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="6">
         <v>310</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3826,26 +3811,26 @@
       <c r="T37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U37" s="11"/>
+      <c r="U37" s="2"/>
       <c r="V37" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W37" s="3">
         <v>1.27</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y37" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="12">
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3881,7 +3866,7 @@
       <c r="L38" s="3">
         <v>6.13</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="6">
         <v>310</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3905,26 +3890,26 @@
       <c r="T38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U38" s="11"/>
+      <c r="U38" s="2"/>
       <c r="V38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W38" s="3">
         <v>1.27</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="12">
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3942,7 +3927,7 @@
       <c r="F39" s="3">
         <f>E39*D39</f>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3960,7 +3945,7 @@
       <c r="L39" s="3">
         <v>6.25</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="6">
         <v>310</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3984,26 +3969,26 @@
       <c r="T39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="11"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W39" s="3">
         <v>1.27</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="12">
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4021,7 +4006,7 @@
       <c r="F40" s="3">
         <f>E40*D40</f>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4039,7 +4024,7 @@
       <c r="L40" s="3">
         <v>6.31</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="6">
         <v>310</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4063,26 +4048,26 @@
       <c r="T40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U40" s="11"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W40" s="3">
         <v>1.27</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="12">
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4100,7 +4085,7 @@
       <c r="F41" s="3">
         <f>E41*D41</f>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4118,7 +4103,7 @@
       <c r="L41" s="3">
         <v>6.34</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="6">
         <v>310</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4142,26 +4127,26 @@
       <c r="T41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U41" s="11"/>
+      <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W41" s="3">
         <v>1.27</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y41" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="12">
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4197,7 +4182,7 @@
       <c r="L42" s="3">
         <v>5.79</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="6">
         <v>310</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4218,25 +4203,25 @@
       <c r="S42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T42" s="11"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V42" s="11"/>
+      <c r="V42" s="2"/>
       <c r="W42" s="3">
         <v>1.27</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="12">
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4272,7 +4257,7 @@
       <c r="L43" s="3">
         <v>5.84</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="6">
         <v>310</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4305,21 +4290,21 @@
       <c r="W43" s="3">
         <v>1.27</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y43" s="12">
+      <c r="Y43" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z43" s="12">
+      <c r="Z43" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4355,7 +4340,7 @@
       <c r="L44" s="3">
         <v>5.88</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="6">
         <v>310</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4379,26 +4364,26 @@
       <c r="T44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U44" s="11"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W44" s="3">
         <v>1.27</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y44" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="12">
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4434,7 +4419,7 @@
       <c r="L45" s="4">
         <v>6</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="6">
         <v>310</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4458,26 +4443,26 @@
       <c r="T45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U45" s="11"/>
+      <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W45" s="3">
         <v>1.27</v>
       </c>
-      <c r="X45" s="12">
+      <c r="X45" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y45" s="12">
+      <c r="Y45" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="12">
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4513,7 +4498,7 @@
       <c r="L46" s="3">
         <v>6.21</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="6">
         <v>310</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4537,26 +4522,26 @@
       <c r="T46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U46" s="11"/>
+      <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W46" s="3">
         <v>1.27</v>
       </c>
-      <c r="X46" s="12">
+      <c r="X46" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y46" s="12">
+      <c r="Y46" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="12">
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4592,7 +4577,7 @@
       <c r="L47" s="3">
         <v>6.28</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="6">
         <v>310</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4616,26 +4601,26 @@
       <c r="T47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U47" s="11"/>
+      <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W47" s="3">
         <v>1.27</v>
       </c>
-      <c r="X47" s="12">
+      <c r="X47" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y47" s="12">
+      <c r="Y47" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="12">
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4671,7 +4656,7 @@
       <c r="L48" s="3">
         <v>6.37</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="6">
         <v>310</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4695,26 +4680,26 @@
       <c r="T48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U48" s="11"/>
+      <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W48" s="3">
         <v>1.27</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Y48" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="12">
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4750,7 +4735,7 @@
       <c r="L49" s="3">
         <v>5.41</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="6">
         <v>310</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4777,23 +4762,23 @@
       <c r="U49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V49" s="11"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="3">
         <v>1.27</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y49" s="12">
+      <c r="Y49" s="7">
         <v>2.3</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z49" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA49" s="9"/>
+      <c r="AA49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4829,7 +4814,7 @@
       <c r="L50" s="3">
         <v>5.24</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="6">
         <v>310</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4856,29 +4841,29 @@
       <c r="U50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="3">
         <v>1.27</v>
       </c>
-      <c r="X50" s="12">
+      <c r="X50" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y50" s="12">
+      <c r="Y50" s="7">
         <v>2.3</v>
       </c>
-      <c r="Z50" s="12">
+      <c r="Z50" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA50" s="9"/>
+      <c r="AA50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D51" s="3">
@@ -4908,7 +4893,7 @@
       <c r="L51" s="3">
         <v>5.62</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="6">
         <v>310</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4929,27 +4914,27 @@
       <c r="S51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
       <c r="W51" s="3">
         <v>1.23</v>
       </c>
-      <c r="X51" s="12">
+      <c r="X51" s="7">
         <v>1.98</v>
       </c>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>191</v>
       </c>
       <c r="D52" s="3">
@@ -4979,7 +4964,7 @@
       <c r="L52" s="3">
         <v>5.65</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="6">
         <v>310</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5000,27 +4985,27 @@
       <c r="S52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="3">
         <v>1.23</v>
       </c>
-      <c r="X52" s="12">
+      <c r="X52" s="7">
         <v>1.98</v>
       </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D53" s="3">
@@ -5041,14 +5026,14 @@
       <c r="I53" s="4">
         <v>15</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>6.653</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3">
         <v>5.63</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="6">
         <v>310</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5070,22 +5055,22 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="7" t="s">
+      <c r="W53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="3">
@@ -5106,14 +5091,14 @@
       <c r="I54" s="4">
         <v>15</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="5">
         <v>6.653</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3">
         <v>5.53</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="6">
         <v>310</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5135,22 +5120,22 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="7" t="s">
+      <c r="W54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="3">
@@ -5171,14 +5156,14 @@
       <c r="I55" s="4">
         <v>15</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="5">
         <v>6.653</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3">
         <v>5.53</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="6">
         <v>310</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5200,22 +5185,22 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="7" t="s">
+      <c r="W55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>206</v>
       </c>
       <c r="D56" s="3">
@@ -5236,7 +5221,7 @@
       <c r="I56" s="4">
         <v>15</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>6.653</v>
       </c>
       <c r="K56" s="3">
@@ -5245,7 +5230,7 @@
       <c r="L56" s="3">
         <v>7.18</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="6">
         <v>310</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5267,22 +5252,22 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="7" t="s">
+      <c r="W56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="3">
@@ -5303,7 +5288,7 @@
       <c r="I57" s="4">
         <v>15</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>6.653</v>
       </c>
       <c r="K57" s="3">
@@ -5312,7 +5297,7 @@
       <c r="L57" s="3">
         <v>7.29</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="6">
         <v>310</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5334,22 +5319,22 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="7" t="s">
+      <c r="W57" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>211</v>
       </c>
       <c r="D58" s="3">
@@ -5370,7 +5355,7 @@
       <c r="I58" s="4">
         <v>15</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>6.653</v>
       </c>
       <c r="K58" s="3">
@@ -5379,7 +5364,7 @@
       <c r="L58" s="3">
         <v>7.12</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="6">
         <v>310</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5401,22 +5386,22 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="7" t="s">
+      <c r="W58" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>213</v>
       </c>
       <c r="D59" s="3">
@@ -5437,7 +5422,7 @@
       <c r="I59" s="4">
         <v>15</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>6.653</v>
       </c>
       <c r="K59" s="3">
@@ -5446,7 +5431,7 @@
       <c r="L59" s="3">
         <v>6.92</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="6">
         <v>310</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5468,22 +5453,22 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="7" t="s">
+      <c r="W59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D60" s="3">
@@ -5504,7 +5489,7 @@
       <c r="I60" s="4">
         <v>15</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="5">
         <v>6.653</v>
       </c>
       <c r="K60" s="3">
@@ -5513,7 +5498,7 @@
       <c r="L60" s="3">
         <v>7.15</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="6">
         <v>310</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5535,22 +5520,22 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="7" t="s">
+      <c r="W60" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>217</v>
       </c>
       <c r="D61" s="3">
@@ -5571,7 +5556,7 @@
       <c r="I61" s="4">
         <v>15</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="5">
         <v>6.653</v>
       </c>
       <c r="K61" s="3">
@@ -5580,7 +5565,7 @@
       <c r="L61" s="3">
         <v>5.86</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="6">
         <v>310</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5602,22 +5587,22 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="7" t="s">
+      <c r="W61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="3">
@@ -5638,7 +5623,7 @@
       <c r="I62" s="4">
         <v>15</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>6.653</v>
       </c>
       <c r="K62" s="3">
@@ -5647,7 +5632,7 @@
       <c r="L62" s="3">
         <v>5.81</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="6">
         <v>310</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5669,22 +5654,22 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="7" t="s">
+      <c r="W62" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>223</v>
       </c>
       <c r="D63" s="3">
@@ -5705,7 +5690,7 @@
       <c r="I63" s="4">
         <v>15</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>6.653</v>
       </c>
       <c r="K63" s="3">
@@ -5714,7 +5699,7 @@
       <c r="L63" s="3">
         <v>3.92</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="6">
         <v>310</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5736,22 +5721,22 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="7" t="s">
+      <c r="W63" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="3">
@@ -5772,7 +5757,7 @@
       <c r="I64" s="4">
         <v>15</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>6.653</v>
       </c>
       <c r="K64" s="3">
@@ -5781,7 +5766,7 @@
       <c r="L64" s="3">
         <v>7.16</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="6">
         <v>310</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5803,22 +5788,22 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="7" t="s">
+      <c r="W64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>228</v>
       </c>
       <c r="D65" s="3">
@@ -5839,7 +5824,7 @@
       <c r="I65" s="4">
         <v>15</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>6.653</v>
       </c>
       <c r="K65" s="3">
@@ -5848,7 +5833,7 @@
       <c r="L65" s="3">
         <v>6.89</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="6">
         <v>310</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5870,22 +5855,22 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="7" t="s">
+      <c r="W65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D66" s="3">
@@ -5906,7 +5891,7 @@
       <c r="I66" s="4">
         <v>15</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <v>6.653</v>
       </c>
       <c r="K66" s="3">
@@ -5915,7 +5900,7 @@
       <c r="L66" s="3">
         <v>7.23</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="6">
         <v>310</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5937,22 +5922,22 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="7" t="s">
+      <c r="W66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="3">
@@ -5973,7 +5958,7 @@
       <c r="I67" s="4">
         <v>15</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="5">
         <v>6.653</v>
       </c>
       <c r="K67" s="3">
@@ -5982,7 +5967,7 @@
       <c r="L67" s="3">
         <v>4.09</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="6">
         <v>310</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6004,22 +5989,22 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="7" t="s">
+      <c r="W67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>234</v>
       </c>
       <c r="D68" s="3">
@@ -6040,7 +6025,7 @@
       <c r="I68" s="4">
         <v>15</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>6.653</v>
       </c>
       <c r="K68" s="3">
@@ -6049,7 +6034,7 @@
       <c r="L68" s="3">
         <v>5.9</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="6">
         <v>310</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6071,22 +6056,22 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="7" t="s">
+      <c r="W68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D69" s="3">
@@ -6107,14 +6092,14 @@
       <c r="I69" s="4">
         <v>15</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>2.323</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3">
         <v>5.23</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="6">
         <v>310</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6136,22 +6121,22 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="7">
+      <c r="W69" s="5">
         <v>1.201</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D70" s="3">
@@ -6172,14 +6157,14 @@
       <c r="I70" s="4">
         <v>15</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>2.323</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3">
         <v>5.15</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="6">
         <v>310</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6201,13 +6186,13 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="7">
+      <c r="W70" s="5">
         <v>1.201</v>
       </c>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -786,7 +786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +797,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -834,25 +840,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -860,13 +854,28 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1195,33 +1204,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="62.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="14" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="17" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="17" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="17" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="17" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="62.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="18" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="18" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1240,7 +1249,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1367,9 +1376,9 @@
       <c r="W2" s="7">
         <v>1.201</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1434,10 +1443,10 @@
       <c r="W3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="6">
@@ -1499,10 +1508,10 @@
       <c r="W4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="6">
@@ -1564,10 +1573,10 @@
       <c r="W5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="6">
@@ -1629,10 +1638,10 @@
       <c r="W6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="6">
@@ -1694,10 +1703,10 @@
       <c r="W7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="6">
@@ -1759,10 +1768,10 @@
       <c r="W8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="6">
@@ -1824,10 +1833,10 @@
       <c r="W9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="6">
@@ -1889,10 +1898,10 @@
       <c r="W10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="6">
@@ -1954,10 +1963,10 @@
       <c r="W11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="6">
@@ -2019,10 +2028,10 @@
       <c r="W12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="6">
@@ -2086,10 +2095,10 @@
       <c r="W13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="6">
@@ -2153,10 +2162,10 @@
       <c r="W14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="6">
@@ -2220,10 +2229,10 @@
       <c r="W15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="6">
@@ -2287,12 +2296,12 @@
       <c r="W16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2354,12 +2363,12 @@
       <c r="W17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2421,12 +2430,12 @@
       <c r="W18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2488,12 +2497,12 @@
       <c r="W19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2555,12 +2564,12 @@
       <c r="W20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2622,12 +2631,12 @@
       <c r="W21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2689,12 +2698,12 @@
       <c r="W22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2756,12 +2765,12 @@
       <c r="W23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2828,11 +2837,11 @@
       <c r="X24" s="6">
         <v>2</v>
       </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2899,18 +2908,18 @@
       <c r="X25" s="6">
         <v>2</v>
       </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="3">
@@ -2961,27 +2970,27 @@
       <c r="S26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="3">
         <v>1.25</v>
       </c>
       <c r="X26" s="6">
         <v>2</v>
       </c>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="3">
@@ -3032,20 +3041,20 @@
       <c r="S27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
       <c r="W27" s="3">
         <v>1.25</v>
       </c>
       <c r="X27" s="6">
         <v>2</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3111,16 +3120,16 @@
       <c r="W28" s="3">
         <v>1.27</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="11">
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="AA28" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3190,20 +3199,20 @@
       <c r="W29" s="3">
         <v>1.27</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA29" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3264,25 +3273,25 @@
       <c r="T30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U30" s="10"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W30" s="3">
         <v>1.27</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y30" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="11">
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3343,25 +3352,25 @@
       <c r="T31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U31" s="10"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W31" s="3">
         <v>1.27</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y31" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="11">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3422,25 +3431,25 @@
       <c r="T32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="10"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W32" s="3">
         <v>1.27</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X32" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y32" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="11">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3501,25 +3510,25 @@
       <c r="T33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="10"/>
+      <c r="U33" s="11"/>
       <c r="V33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W33" s="3">
         <v>1.27</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="11">
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3580,25 +3589,25 @@
       <c r="T34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="10"/>
+      <c r="U34" s="11"/>
       <c r="V34" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W34" s="3">
         <v>1.27</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y34" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="11">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3660,20 +3669,20 @@
       <c r="U35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="10"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="3">
         <v>1.27</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="11">
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA35" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="AA35" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3743,20 +3752,20 @@
       <c r="W36" s="3">
         <v>1.27</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y36" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA36" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3817,25 +3826,25 @@
       <c r="T37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U37" s="10"/>
+      <c r="U37" s="11"/>
       <c r="V37" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W37" s="3">
         <v>1.27</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y37" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="11">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3896,25 +3905,25 @@
       <c r="T38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U38" s="10"/>
+      <c r="U38" s="11"/>
       <c r="V38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W38" s="3">
         <v>1.27</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X38" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y38" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="11">
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="F39" s="3">
         <f>E39*D39</f>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3975,25 +3984,25 @@
       <c r="T39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="10"/>
+      <c r="U39" s="11"/>
       <c r="V39" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W39" s="3">
         <v>1.27</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="11">
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4012,7 +4021,7 @@
       <c r="F40" s="3">
         <f>E40*D40</f>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4054,25 +4063,25 @@
       <c r="T40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U40" s="10"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W40" s="3">
         <v>1.27</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X40" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y40" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="11">
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4091,7 +4100,7 @@
       <c r="F41" s="3">
         <f>E41*D41</f>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4133,25 +4142,25 @@
       <c r="T41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U41" s="10"/>
+      <c r="U41" s="11"/>
       <c r="V41" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W41" s="3">
         <v>1.27</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X41" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Y41" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="11">
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4209,24 +4218,24 @@
       <c r="S42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V42" s="10"/>
+      <c r="V42" s="11"/>
       <c r="W42" s="3">
         <v>1.27</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="11">
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA42" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="AA42" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4296,20 +4305,20 @@
       <c r="W43" s="3">
         <v>1.27</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X43" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Y43" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z43" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA43" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4370,25 +4379,25 @@
       <c r="T44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U44" s="10"/>
+      <c r="U44" s="11"/>
       <c r="V44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W44" s="3">
         <v>1.27</v>
       </c>
-      <c r="X44" s="11">
+      <c r="X44" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="11">
+      <c r="Y44" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="11">
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4449,21 +4458,21 @@
       <c r="T45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U45" s="10"/>
+      <c r="U45" s="11"/>
       <c r="V45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W45" s="3">
         <v>1.27</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X45" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y45" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="11">
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4528,21 +4537,21 @@
       <c r="T46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U46" s="10"/>
+      <c r="U46" s="11"/>
       <c r="V46" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W46" s="3">
         <v>1.27</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X46" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y46" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="11">
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4607,21 +4616,21 @@
       <c r="T47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U47" s="10"/>
+      <c r="U47" s="11"/>
       <c r="V47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W47" s="3">
         <v>1.27</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X47" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y47" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="11">
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4686,21 +4695,21 @@
       <c r="T48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U48" s="10"/>
+      <c r="U48" s="11"/>
       <c r="V48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W48" s="3">
         <v>1.27</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X48" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y48" s="12">
         <v>2.32</v>
       </c>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="11">
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="12">
         <v>1.42</v>
       </c>
     </row>
@@ -4768,20 +4777,20 @@
       <c r="U49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V49" s="10"/>
+      <c r="V49" s="11"/>
       <c r="W49" s="3">
         <v>1.27</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X49" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y49" s="12">
         <v>2.3</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z49" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA49" s="5"/>
+      <c r="AA49" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="6">
@@ -4847,29 +4856,29 @@
       <c r="U50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V50" s="10"/>
+      <c r="V50" s="11"/>
       <c r="W50" s="3">
         <v>1.27</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X50" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y50" s="12">
         <v>2.3</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z50" s="12">
         <v>2.47</v>
       </c>
-      <c r="AA50" s="5"/>
+      <c r="AA50" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D51" s="3">
@@ -4920,27 +4929,27 @@
       <c r="S51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
       <c r="W51" s="3">
         <v>1.23</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X51" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D52" s="3">
@@ -4991,27 +5000,27 @@
       <c r="S52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
       <c r="W52" s="3">
         <v>1.23</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X52" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D53" s="3">
@@ -5064,19 +5073,19 @@
       <c r="W53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="3">
@@ -5129,19 +5138,19 @@
       <c r="W54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="3">
@@ -5194,19 +5203,19 @@
       <c r="W55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D56" s="3">
@@ -5261,19 +5270,19 @@
       <c r="W56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="3">
@@ -5328,19 +5337,19 @@
       <c r="W57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>211</v>
       </c>
       <c r="D58" s="3">
@@ -5395,19 +5404,19 @@
       <c r="W58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D59" s="3">
@@ -5462,19 +5471,19 @@
       <c r="W59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D60" s="3">
@@ -5529,19 +5538,19 @@
       <c r="W60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D61" s="3">
@@ -5596,19 +5605,19 @@
       <c r="W61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="3">
@@ -5663,19 +5672,19 @@
       <c r="W62" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D63" s="3">
@@ -5730,19 +5739,19 @@
       <c r="W63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="3">
@@ -5797,19 +5806,19 @@
       <c r="W64" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D65" s="3">
@@ -5864,19 +5873,19 @@
       <c r="W65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D66" s="3">
@@ -5931,19 +5940,19 @@
       <c r="W66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="3">
@@ -5998,19 +6007,19 @@
       <c r="W67" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>234</v>
       </c>
       <c r="D68" s="3">
@@ -6065,19 +6074,19 @@
       <c r="W68" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D69" s="3">
@@ -6130,19 +6139,19 @@
       <c r="W69" s="7">
         <v>1.201</v>
       </c>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D70" s="3">
@@ -6195,10 +6204,10 @@
       <c r="W70" s="7">
         <v>1.201</v>
       </c>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -786,19 +786,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -840,12 +834,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -855,28 +855,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -894,7 +876,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,33 +1186,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="62.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="17" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="17" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="18" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="18" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="62.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="13" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1303,21 +1285,21 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1344,14 +1326,14 @@
       <c r="I2" s="4">
         <v>15</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>2.323</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>5.06</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>310</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1373,18 +1355,18 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="7">
+      <c r="W2" s="5">
         <v>1.201</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="5" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1411,14 +1393,14 @@
       <c r="I3" s="4">
         <v>15</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>6.653</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>5.6</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>310</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1440,16 +1422,16 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1476,14 +1458,14 @@
       <c r="I4" s="4">
         <v>15</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>6.653</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
         <v>5.63</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>310</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1505,16 +1487,16 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1541,14 +1523,14 @@
       <c r="I5" s="4">
         <v>15</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>6.653</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
         <v>5.63</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>310</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1570,16 +1552,16 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1606,14 +1588,14 @@
       <c r="I6" s="4">
         <v>15</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>6.653</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
         <v>5.89</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>310</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1635,16 +1617,16 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1671,14 +1653,14 @@
       <c r="I7" s="4">
         <v>15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>6.653</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4">
         <v>6</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>310</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1700,16 +1682,16 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1736,14 +1718,14 @@
       <c r="I8" s="4">
         <v>15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>6.653</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
         <v>7.08</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>310</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1765,16 +1747,16 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1801,14 +1783,14 @@
       <c r="I9" s="4">
         <v>15</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>6.653</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
         <v>5.69</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>310</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1830,16 +1812,16 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1866,14 +1848,14 @@
       <c r="I10" s="4">
         <v>15</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>6.653</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
         <v>5.67</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>310</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1895,16 +1877,16 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1931,14 +1913,14 @@
       <c r="I11" s="4">
         <v>15</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>6.653</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>5.97</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>310</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1960,16 +1942,16 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1996,14 +1978,14 @@
       <c r="I12" s="4">
         <v>15</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>6.653</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
         <v>7.11</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>310</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -2025,16 +2007,16 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2061,7 +2043,7 @@
       <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K13" s="3">
@@ -2070,7 +2052,7 @@
       <c r="L13" s="3">
         <v>5.93</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>310</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2092,16 +2074,16 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="6">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2128,7 +2110,7 @@
       <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K14" s="3">
@@ -2137,7 +2119,7 @@
       <c r="L14" s="3">
         <v>6.13</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>310</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2159,16 +2141,16 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="6">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2195,7 +2177,7 @@
       <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K15" s="3">
@@ -2204,7 +2186,7 @@
       <c r="L15" s="3">
         <v>5.98</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>310</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2226,16 +2208,16 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="6">
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2262,7 +2244,7 @@
       <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="3">
@@ -2271,7 +2253,7 @@
       <c r="L16" s="3">
         <v>5.92</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>310</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2293,16 +2275,16 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2329,7 +2311,7 @@
       <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K17" s="3">
@@ -2338,7 +2320,7 @@
       <c r="L17" s="3">
         <v>6.48</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>310</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2360,16 +2342,16 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2396,7 +2378,7 @@
       <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K18" s="3">
@@ -2405,7 +2387,7 @@
       <c r="L18" s="3">
         <v>6.29</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>310</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2427,16 +2409,16 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="7" t="s">
+      <c r="W18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2463,7 +2445,7 @@
       <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="3">
@@ -2472,7 +2454,7 @@
       <c r="L19" s="3">
         <v>6.13</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>310</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2494,16 +2476,16 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2530,7 +2512,7 @@
       <c r="I20" s="4">
         <v>5</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K20" s="3">
@@ -2539,7 +2521,7 @@
       <c r="L20" s="3">
         <v>6.04</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>310</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2561,16 +2543,16 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2597,7 +2579,7 @@
       <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K21" s="3">
@@ -2606,7 +2588,7 @@
       <c r="L21" s="3">
         <v>5.95</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>310</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2628,16 +2610,16 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2664,7 +2646,7 @@
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K22" s="3">
@@ -2673,7 +2655,7 @@
       <c r="L22" s="3">
         <v>5.91</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>310</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2695,16 +2677,16 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2731,7 +2713,7 @@
       <c r="I23" s="4">
         <v>5</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K23" s="3">
@@ -2740,7 +2722,7 @@
       <c r="L23" s="3">
         <v>5.89</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>310</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2762,16 +2744,16 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="7" t="s">
+      <c r="W23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2834,15 +2816,15 @@
       <c r="W24" s="3">
         <v>1.25</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="1">
         <v>2</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2905,21 +2887,21 @@
       <c r="W25" s="3">
         <v>1.25</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="1">
         <v>2</v>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="3">
@@ -2940,7 +2922,7 @@
       <c r="I26" s="4">
         <v>15</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>121</v>
       </c>
       <c r="K26" s="3">
@@ -2949,7 +2931,7 @@
       <c r="L26" s="3">
         <v>5.52</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>310</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2970,27 +2952,27 @@
       <c r="S26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="3">
         <v>1.25</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="1">
         <v>2</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="3">
@@ -3011,7 +2993,7 @@
       <c r="I27" s="4">
         <v>15</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="K27" s="3">
@@ -3020,7 +3002,7 @@
       <c r="L27" s="3">
         <v>5.49</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>310</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3041,21 +3023,21 @@
       <c r="S27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="3">
         <v>1.25</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="1">
         <v>2</v>
       </c>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3091,7 +3073,7 @@
       <c r="L28" s="3">
         <v>5.81</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>310</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3120,17 +3102,17 @@
       <c r="W28" s="3">
         <v>1.27</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="12">
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3166,7 +3148,7 @@
       <c r="L29" s="3">
         <v>5.9</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="6">
         <v>310</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3199,21 +3181,21 @@
       <c r="W29" s="3">
         <v>1.27</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z29" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3249,7 +3231,7 @@
       <c r="L30" s="4">
         <v>6</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>310</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3273,26 +3255,26 @@
       <c r="T30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U30" s="11"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W30" s="3">
         <v>1.27</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="12">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3328,7 +3310,7 @@
       <c r="L31" s="3">
         <v>6.15</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>310</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3352,26 +3334,26 @@
       <c r="T31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U31" s="11"/>
+      <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W31" s="3">
         <v>1.27</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y31" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="12">
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3407,7 +3389,7 @@
       <c r="L32" s="3">
         <v>6.25</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <v>310</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3431,26 +3413,26 @@
       <c r="T32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="11"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W32" s="3">
         <v>1.27</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="12">
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3486,7 +3468,7 @@
       <c r="L33" s="3">
         <v>6.21</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="6">
         <v>310</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3510,26 +3492,26 @@
       <c r="T33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="11"/>
+      <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W33" s="3">
         <v>1.27</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="12">
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3565,7 +3547,7 @@
       <c r="L34" s="3">
         <v>6.32</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="6">
         <v>310</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3589,26 +3571,26 @@
       <c r="T34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="11"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W34" s="3">
         <v>1.27</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Y34" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="12">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3644,7 +3626,7 @@
       <c r="L35" s="3">
         <v>5.79</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="6">
         <v>310</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3669,21 +3651,21 @@
       <c r="U35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="2"/>
       <c r="W35" s="3">
         <v>1.27</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="12">
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3719,7 +3701,7 @@
       <c r="L36" s="3">
         <v>5.88</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="6">
         <v>310</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3752,21 +3734,21 @@
       <c r="W36" s="3">
         <v>1.27</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y36" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z36" s="12">
+      <c r="Z36" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA36" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3802,7 +3784,7 @@
       <c r="L37" s="3">
         <v>5.99</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="6">
         <v>310</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3826,26 +3808,26 @@
       <c r="T37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U37" s="11"/>
+      <c r="U37" s="2"/>
       <c r="V37" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W37" s="3">
         <v>1.27</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y37" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="12">
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3881,7 +3863,7 @@
       <c r="L38" s="3">
         <v>6.13</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="6">
         <v>310</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3905,26 +3887,26 @@
       <c r="T38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U38" s="11"/>
+      <c r="U38" s="2"/>
       <c r="V38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W38" s="3">
         <v>1.27</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="12">
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3942,7 +3924,7 @@
       <c r="F39" s="3">
         <f>E39*D39</f>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3960,7 +3942,7 @@
       <c r="L39" s="3">
         <v>6.25</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="6">
         <v>310</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3984,26 +3966,26 @@
       <c r="T39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U39" s="11"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W39" s="3">
         <v>1.27</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="12">
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4021,7 +4003,7 @@
       <c r="F40" s="3">
         <f>E40*D40</f>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4039,7 +4021,7 @@
       <c r="L40" s="3">
         <v>6.31</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="6">
         <v>310</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4063,26 +4045,26 @@
       <c r="T40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U40" s="11"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W40" s="3">
         <v>1.27</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="12">
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4100,7 +4082,7 @@
       <c r="F41" s="3">
         <f>E41*D41</f>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4118,7 +4100,7 @@
       <c r="L41" s="3">
         <v>6.34</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="6">
         <v>310</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4142,26 +4124,26 @@
       <c r="T41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U41" s="11"/>
+      <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W41" s="3">
         <v>1.27</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y41" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="12">
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4197,7 +4179,7 @@
       <c r="L42" s="3">
         <v>5.79</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="6">
         <v>310</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4218,25 +4200,25 @@
       <c r="S42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T42" s="11"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V42" s="11"/>
+      <c r="V42" s="2"/>
       <c r="W42" s="3">
         <v>1.27</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="12">
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4272,7 +4254,7 @@
       <c r="L43" s="3">
         <v>5.84</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="6">
         <v>310</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4305,21 +4287,21 @@
       <c r="W43" s="3">
         <v>1.27</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y43" s="12">
+      <c r="Y43" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z43" s="12">
+      <c r="Z43" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4355,7 +4337,7 @@
       <c r="L44" s="3">
         <v>5.88</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="6">
         <v>310</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4379,26 +4361,26 @@
       <c r="T44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U44" s="11"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W44" s="3">
         <v>1.27</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y44" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="12">
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4434,7 +4416,7 @@
       <c r="L45" s="4">
         <v>6</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="6">
         <v>310</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4458,26 +4440,26 @@
       <c r="T45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U45" s="11"/>
+      <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W45" s="3">
         <v>1.27</v>
       </c>
-      <c r="X45" s="12">
+      <c r="X45" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y45" s="12">
+      <c r="Y45" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="12">
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4513,7 +4495,7 @@
       <c r="L46" s="3">
         <v>6.21</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="6">
         <v>310</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4537,26 +4519,26 @@
       <c r="T46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U46" s="11"/>
+      <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W46" s="3">
         <v>1.27</v>
       </c>
-      <c r="X46" s="12">
+      <c r="X46" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y46" s="12">
+      <c r="Y46" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="12">
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4592,7 +4574,7 @@
       <c r="L47" s="3">
         <v>6.28</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="6">
         <v>310</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4616,26 +4598,26 @@
       <c r="T47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U47" s="11"/>
+      <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W47" s="3">
         <v>1.27</v>
       </c>
-      <c r="X47" s="12">
+      <c r="X47" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y47" s="12">
+      <c r="Y47" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="12">
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4671,7 +4653,7 @@
       <c r="L48" s="3">
         <v>6.37</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="6">
         <v>310</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4695,26 +4677,26 @@
       <c r="T48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U48" s="11"/>
+      <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W48" s="3">
         <v>1.27</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Y48" s="7">
         <v>2.32</v>
       </c>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="12">
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7">
         <v>1.42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4750,7 +4732,7 @@
       <c r="L49" s="3">
         <v>5.41</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="6">
         <v>310</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4777,23 +4759,23 @@
       <c r="U49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V49" s="11"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="3">
         <v>1.27</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y49" s="12">
+      <c r="Y49" s="7">
         <v>2.3</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z49" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA49" s="9"/>
+      <c r="AA49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4829,7 +4811,7 @@
       <c r="L50" s="3">
         <v>5.24</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="6">
         <v>310</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4856,29 +4838,29 @@
       <c r="U50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="3">
         <v>1.27</v>
       </c>
-      <c r="X50" s="12">
+      <c r="X50" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y50" s="12">
+      <c r="Y50" s="7">
         <v>2.3</v>
       </c>
-      <c r="Z50" s="12">
+      <c r="Z50" s="7">
         <v>2.47</v>
       </c>
-      <c r="AA50" s="9"/>
+      <c r="AA50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D51" s="3">
@@ -4908,7 +4890,7 @@
       <c r="L51" s="3">
         <v>5.62</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="6">
         <v>310</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4929,27 +4911,27 @@
       <c r="S51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
       <c r="W51" s="3">
         <v>1.23</v>
       </c>
-      <c r="X51" s="12">
+      <c r="X51" s="7">
         <v>1.98</v>
       </c>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D52" s="3">
@@ -4979,7 +4961,7 @@
       <c r="L52" s="3">
         <v>5.65</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="6">
         <v>310</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5000,27 +4982,27 @@
       <c r="S52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="3">
         <v>1.23</v>
       </c>
-      <c r="X52" s="12">
+      <c r="X52" s="7">
         <v>1.98</v>
       </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>194</v>
       </c>
       <c r="D53" s="3">
@@ -5041,14 +5023,14 @@
       <c r="I53" s="4">
         <v>15</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>6.653</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3">
         <v>5.63</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="6">
         <v>310</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5070,22 +5052,22 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="7" t="s">
+      <c r="W53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="3">
@@ -5106,14 +5088,14 @@
       <c r="I54" s="4">
         <v>15</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="5">
         <v>6.653</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3">
         <v>5.53</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="6">
         <v>310</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5135,22 +5117,22 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="7" t="s">
+      <c r="W54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="3">
@@ -5171,14 +5153,14 @@
       <c r="I55" s="4">
         <v>15</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="5">
         <v>6.653</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3">
         <v>5.53</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="6">
         <v>310</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5200,22 +5182,22 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="7" t="s">
+      <c r="W55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D56" s="3">
@@ -5236,7 +5218,7 @@
       <c r="I56" s="4">
         <v>15</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>6.653</v>
       </c>
       <c r="K56" s="3">
@@ -5245,7 +5227,7 @@
       <c r="L56" s="3">
         <v>7.18</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="6">
         <v>310</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5267,22 +5249,22 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="7" t="s">
+      <c r="W56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="3">
@@ -5303,7 +5285,7 @@
       <c r="I57" s="4">
         <v>15</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>6.653</v>
       </c>
       <c r="K57" s="3">
@@ -5312,7 +5294,7 @@
       <c r="L57" s="3">
         <v>7.29</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="6">
         <v>310</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5334,22 +5316,22 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="7" t="s">
+      <c r="W57" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D58" s="3">
@@ -5370,7 +5352,7 @@
       <c r="I58" s="4">
         <v>15</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>6.653</v>
       </c>
       <c r="K58" s="3">
@@ -5379,7 +5361,7 @@
       <c r="L58" s="3">
         <v>7.12</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="6">
         <v>310</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5401,22 +5383,22 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="7" t="s">
+      <c r="W58" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D59" s="3">
@@ -5437,7 +5419,7 @@
       <c r="I59" s="4">
         <v>15</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>6.653</v>
       </c>
       <c r="K59" s="3">
@@ -5446,7 +5428,7 @@
       <c r="L59" s="3">
         <v>6.92</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="6">
         <v>310</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5468,22 +5450,22 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="7" t="s">
+      <c r="W59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D60" s="3">
@@ -5504,7 +5486,7 @@
       <c r="I60" s="4">
         <v>15</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="5">
         <v>6.653</v>
       </c>
       <c r="K60" s="3">
@@ -5513,7 +5495,7 @@
       <c r="L60" s="3">
         <v>7.15</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="6">
         <v>310</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5535,22 +5517,22 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="7" t="s">
+      <c r="W60" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D61" s="3">
@@ -5571,7 +5553,7 @@
       <c r="I61" s="4">
         <v>15</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="5">
         <v>6.653</v>
       </c>
       <c r="K61" s="3">
@@ -5580,7 +5562,7 @@
       <c r="L61" s="3">
         <v>5.86</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="6">
         <v>310</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5602,22 +5584,22 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="7" t="s">
+      <c r="W61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="3">
@@ -5638,7 +5620,7 @@
       <c r="I62" s="4">
         <v>15</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>6.653</v>
       </c>
       <c r="K62" s="3">
@@ -5647,7 +5629,7 @@
       <c r="L62" s="3">
         <v>5.81</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="6">
         <v>310</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5669,22 +5651,22 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="7" t="s">
+      <c r="W62" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D63" s="3">
@@ -5705,7 +5687,7 @@
       <c r="I63" s="4">
         <v>15</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>6.653</v>
       </c>
       <c r="K63" s="3">
@@ -5714,7 +5696,7 @@
       <c r="L63" s="3">
         <v>3.92</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="6">
         <v>310</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5736,22 +5718,22 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="7" t="s">
+      <c r="W63" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="3">
@@ -5772,7 +5754,7 @@
       <c r="I64" s="4">
         <v>15</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>6.653</v>
       </c>
       <c r="K64" s="3">
@@ -5781,7 +5763,7 @@
       <c r="L64" s="3">
         <v>7.16</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="6">
         <v>310</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5803,22 +5785,22 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="7" t="s">
+      <c r="W64" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D65" s="3">
@@ -5839,7 +5821,7 @@
       <c r="I65" s="4">
         <v>15</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>6.653</v>
       </c>
       <c r="K65" s="3">
@@ -5848,7 +5830,7 @@
       <c r="L65" s="3">
         <v>6.89</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="6">
         <v>310</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5870,22 +5852,22 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="7" t="s">
+      <c r="W65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D66" s="3">
@@ -5906,7 +5888,7 @@
       <c r="I66" s="4">
         <v>15</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <v>6.653</v>
       </c>
       <c r="K66" s="3">
@@ -5915,7 +5897,7 @@
       <c r="L66" s="3">
         <v>7.23</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="6">
         <v>310</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5937,22 +5919,22 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="7" t="s">
+      <c r="W66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="3">
@@ -5973,7 +5955,7 @@
       <c r="I67" s="4">
         <v>15</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="5">
         <v>6.653</v>
       </c>
       <c r="K67" s="3">
@@ -5982,7 +5964,7 @@
       <c r="L67" s="3">
         <v>4.09</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="6">
         <v>310</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6004,22 +5986,22 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="7" t="s">
+      <c r="W67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D68" s="3">
@@ -6040,7 +6022,7 @@
       <c r="I68" s="4">
         <v>15</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>6.653</v>
       </c>
       <c r="K68" s="3">
@@ -6049,7 +6031,7 @@
       <c r="L68" s="3">
         <v>5.9</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="6">
         <v>310</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6071,22 +6053,22 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="7" t="s">
+      <c r="W68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D69" s="3">
@@ -6107,14 +6089,14 @@
       <c r="I69" s="4">
         <v>15</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>2.323</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3">
         <v>5.23</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="6">
         <v>310</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6136,22 +6118,22 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="7">
+      <c r="W69" s="5">
         <v>1.201</v>
       </c>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D70" s="3">
@@ -6172,14 +6154,14 @@
       <c r="I70" s="4">
         <v>15</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>2.323</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3">
         <v>5.15</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="6">
         <v>310</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6201,13 +6183,13 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="7">
+      <c r="W70" s="5">
         <v>1.201</v>
       </c>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -1,23 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MRI_group\projects\2022_D_Xe_project\LOCAL-Git_Fanum\student_Deuterium\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD08F2F-E99F-4AF8-B18A-41F835DF0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="15840" yWindow="720" windowWidth="21195" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk166682796" localSheetId="0">Sheet1!$J$2</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +137,6 @@
   </si>
   <si>
     <t>Metabolite_5_ppm</t>
-  </si>
-  <si>
-    <t>FA_20240206_2H_yeast_acetone-d6_3.csv</t>
   </si>
   <si>
     <t>FA_20240206_2H_yeast_1_3</t>
@@ -196,27 +210,18 @@
     <t>4.368, 2.475</t>
   </si>
   <si>
-    <t>FA_20240228_2H_yeast_fumarate-d2_4.csv</t>
-  </si>
-  <si>
     <t>FA_20240213_2H_E.coli_1_4</t>
   </si>
   <si>
     <t>4.368, 2.476</t>
   </si>
   <si>
-    <t>FA_20240701_2H_yeast_fumarate-d2_8.csv</t>
-  </si>
-  <si>
     <t>FA_20240701_2H_yeast_1_8</t>
   </si>
   <si>
     <t>4.368, 2.477</t>
   </si>
   <si>
-    <t>FA_20240701_2H_yeast_fumarate-d2_5.csv</t>
-  </si>
-  <si>
     <t>FA_20240701_2H_yeast_1_5</t>
   </si>
   <si>
@@ -229,9 +234,6 @@
     <t>4.368, 2.478</t>
   </si>
   <si>
-    <t>FA_20240701_2H_yeast_fumarate-d2_7.csv</t>
-  </si>
-  <si>
     <t>FA_20240701_2H_yeast_1_7</t>
   </si>
   <si>
@@ -244,9 +246,6 @@
     <t>4.368, 2.479</t>
   </si>
   <si>
-    <t>FA_20240701_2H_yeast_fumarate-d2_6.csv</t>
-  </si>
-  <si>
     <t>FA_20240701_2H_yeast_1_6</t>
   </si>
   <si>
@@ -256,27 +255,18 @@
     <t>4.368, 2.480</t>
   </si>
   <si>
-    <t>FA_20240704_2H_yeast_fumarate-d2_6.csv</t>
-  </si>
-  <si>
     <t>FA_20240704_2H_yeast_1_6</t>
   </si>
   <si>
     <t>4.368, 2.481</t>
   </si>
   <si>
-    <t>FA_20240704_2H_yeast_fumarate-d2_4.csv</t>
-  </si>
-  <si>
     <t>FA_20240704_2H_yeast_1_4</t>
   </si>
   <si>
     <t>4.368, 2.482</t>
   </si>
   <si>
-    <t>FA_20240704_2H_yeast_fumarate-d2_3.csv</t>
-  </si>
-  <si>
     <t>FA_20240704_2H_yeast_1_3</t>
   </si>
   <si>
@@ -391,9 +381,6 @@
     <t>Nicotinamide-d4+ pyruvate (10mM)</t>
   </si>
   <si>
-    <t>FA _20240215_2H_Yeast_Gluc-d2_30mM_4.csv</t>
-  </si>
-  <si>
     <t>FA _20240215_2H_Yeast_1_4</t>
   </si>
   <si>
@@ -409,15 +396,9 @@
     <t>Acetate-d2</t>
   </si>
   <si>
-    <t>FA_20231109_2H_yeast_Glucose-d2_5.ser.csv</t>
-  </si>
-  <si>
     <t>FA_20231109_2H_yeast_1_5</t>
   </si>
   <si>
-    <t>FA _20240105_2H_Yeast_Gluc-d7_30mM_5.csv</t>
-  </si>
-  <si>
     <t>FA _20240105_2H_yeat_1_5</t>
   </si>
   <si>
@@ -436,9 +417,6 @@
     <t>Acetate-d3</t>
   </si>
   <si>
-    <t>FA _20240105_2H_Yeast_Gluc-d7_30mM_6.csv</t>
-  </si>
-  <si>
     <t>FA _20240105_2H_yeat_1_6</t>
   </si>
   <si>
@@ -622,12 +600,6 @@
     <t>FA_20240408_2H_yeast_1_8</t>
   </si>
   <si>
-    <t>FA _20240215_2H_Yeast_Pyruvate-d3_5.csv</t>
-  </si>
-  <si>
-    <t>FA _20240215_2H_Yeast_1_5</t>
-  </si>
-  <si>
     <t>Pyruvate-d3</t>
   </si>
   <si>
@@ -769,24 +741,98 @@
     <t>FA_20241008_2H_Yeast_1_5</t>
   </si>
   <si>
-    <t>FA_20240205_2H_yeast_acetone-d6_3.csv</t>
-  </si>
-  <si>
     <t>FA_20240205_2H_yeast_1_3</t>
   </si>
   <si>
-    <t>FA_20231122_2H_yeast_acetone-d6_3.csv</t>
-  </si>
-  <si>
     <t>FA_20231122_2H_yeast_1_3</t>
+  </si>
+  <si>
+    <t>FA _20240105_2H_Yeast_Gluc-d7_5.csv</t>
+  </si>
+  <si>
+    <t>FA _20240105_2H_Yeast_Gluc-d7_6.csv</t>
+  </si>
+  <si>
+    <t>FA _20240215_2H_Yeast_Gluc-d2_4.csv</t>
+  </si>
+  <si>
+    <t>FA_20231109_2H_yeast_Gluc-d2_5.ser.csv</t>
+  </si>
+  <si>
+    <t>FA _20240215_2H_Yeast_Pyruvate-d3_3.csv</t>
+  </si>
+  <si>
+    <t>FA _20240215_2H_Yeast_1_3</t>
+  </si>
+  <si>
+    <t>FA_20231113_2H Yeast_Pyruvate-d3_5 .csv</t>
+  </si>
+  <si>
+    <t>FA_20240207_2H_yeast _Pyruvate-d3_4.csv</t>
+  </si>
+  <si>
+    <t>FA_20240207_2H_yeast_Pyruvate-d3_3.csv</t>
+  </si>
+  <si>
+    <t>FA_20231113_2H Yeast_1_5</t>
+  </si>
+  <si>
+    <t>FA_20240207_2H_yeast_1_3</t>
+  </si>
+  <si>
+    <t>FA_20240207_2H_yeast_1_4</t>
+  </si>
+  <si>
+    <t>FA_20240205_2H_yeast _Gluc-d2_5.csv</t>
+  </si>
+  <si>
+    <t>FA _20240205_2H_Yeast_1_5</t>
+  </si>
+  <si>
+    <t>FA_20240228_2H_yeast_Fumarate-d2_4.csv</t>
+  </si>
+  <si>
+    <t>FA_20240701_2H_yeast_Fumarate-d2_8_50.csv</t>
+  </si>
+  <si>
+    <t>FA_20240701_2H_yeast_Fumarate-d2_5_100.csv</t>
+  </si>
+  <si>
+    <t>FA_20240701_2H_yeast_Fumarate-d2_7_400.csv</t>
+  </si>
+  <si>
+    <t>FA_20240701_2H_yeast_Fumarate-d2_6_0.csv</t>
+  </si>
+  <si>
+    <t>FA_20240704_2H_yeast_Fumarate-d2_6_0.csv</t>
+  </si>
+  <si>
+    <t>FA_20240704_2H_yeast_Fumarate-d2_4_100.csv</t>
+  </si>
+  <si>
+    <t>FA_20240704_2H_yeast_Fumarate-d2_3_400.csv</t>
+  </si>
+  <si>
+    <t>FA_20231123_2H Yeast_Fumarate-d2_12 .csv</t>
+  </si>
+  <si>
+    <t>FA_20231123_2H Yeast_1_12</t>
+  </si>
+  <si>
+    <t>FA_20240206_2H_yeast_Acetone-d6_3.csv</t>
+  </si>
+  <si>
+    <t>FA_20240205_2H_yeast_Acetone-d6_3.csv</t>
+  </si>
+  <si>
+    <t>FA_20231122_2H_yeast_Acetone-d6_3.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +851,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -835,58 +903,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -897,10 +964,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -938,71 +1005,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1030,7 +1097,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1053,11 +1120,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1066,13 +1133,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1082,7 +1149,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1091,7 +1158,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1100,7 +1167,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1108,10 +1175,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1176,46 +1243,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="62.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="14" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="14" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="34.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,15 +1365,15 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>17.5</v>
@@ -1315,10 +1382,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <f>E2*D2</f>
+        <f t="shared" ref="F2:F35" si="0">E2*D2</f>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4">
         <v>6</v>
@@ -1331,49 +1399,49 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M2" s="6">
         <v>310</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="5">
-        <v>1.201</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="D3" s="3">
         <v>11.5</v>
@@ -1383,62 +1451,63 @@
       </c>
       <c r="F3" s="4">
         <f>E3*D3</f>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="4">
         <v>15</v>
       </c>
       <c r="J3" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="M3" s="6">
         <v>310</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q3" s="3">
         <v>4.7</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3">
         <v>11.5</v>
@@ -1447,63 +1516,64 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <f>E4*D4</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="4">
         <v>15</v>
       </c>
       <c r="J4" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="M4" s="6">
         <v>310</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q4" s="3">
         <v>4.7</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <v>11.5</v>
@@ -1512,19 +1582,20 @@
         <v>8</v>
       </c>
       <c r="F5" s="4">
-        <f>E5*D5</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>15</v>
       </c>
       <c r="J5" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
@@ -1534,171 +1605,173 @@
         <v>310</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q5" s="3">
         <v>4.7</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="E6" s="4">
         <v>8</v>
       </c>
       <c r="F6" s="4">
-        <f>E6*D6</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>15</v>
       </c>
       <c r="J6" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>5.89</v>
+        <v>5.63</v>
       </c>
       <c r="M6" s="6">
         <v>310</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="3">
         <v>4.7</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="4">
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <f>E7*D7</f>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>15</v>
       </c>
       <c r="J7" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="4">
-        <v>6</v>
+      <c r="L7" s="3">
+        <v>5.89</v>
       </c>
       <c r="M7" s="6">
         <v>310</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="3">
         <v>4.7</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>11.5</v>
@@ -1707,63 +1780,64 @@
         <v>8</v>
       </c>
       <c r="F8" s="4">
-        <f>E8*D8</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I8" s="4">
         <v>15</v>
       </c>
       <c r="J8" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>7.08</v>
+      <c r="L8" s="4">
+        <v>6</v>
       </c>
       <c r="M8" s="6">
         <v>310</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="3">
         <v>4.7</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3">
         <v>11.5</v>
@@ -1772,128 +1846,130 @@
         <v>8</v>
       </c>
       <c r="F9" s="4">
-        <f>E9*D9</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I9" s="4">
         <v>15</v>
       </c>
       <c r="J9" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>5.69</v>
+        <v>7.08</v>
       </c>
       <c r="M9" s="6">
         <v>310</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="3">
         <v>4.7</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3">
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="F10" s="4">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>15</v>
       </c>
       <c r="J10" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="M10" s="6">
         <v>310</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
         <v>4.7</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3">
         <v>2.5</v>
@@ -1902,63 +1978,64 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I11" s="4">
         <v>15</v>
       </c>
       <c r="J11" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>5.97</v>
+        <v>5.67</v>
       </c>
       <c r="M11" s="6">
         <v>310</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="3">
         <v>4.7</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>2.5</v>
@@ -1967,130 +2044,130 @@
         <v>8</v>
       </c>
       <c r="F12" s="4">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I12" s="4">
         <v>15</v>
       </c>
       <c r="J12" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>7.11</v>
+        <v>5.97</v>
       </c>
       <c r="M12" s="6">
         <v>310</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="3">
         <v>4.7</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="4">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4">
-        <f>E13*D13</f>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5.63</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>5.93</v>
+        <v>7.11</v>
       </c>
       <c r="M13" s="6">
         <v>310</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="Q13" s="3">
         <v>4.7</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
         <v>2.1</v>
@@ -2099,65 +2176,66 @@
         <v>80</v>
       </c>
       <c r="F14" s="4">
-        <f>E14*D14</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I14" s="4">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K14" s="3">
-        <v>5.52</v>
+        <v>5.63</v>
       </c>
       <c r="L14" s="3">
-        <v>6.13</v>
+        <v>5.93</v>
       </c>
       <c r="M14" s="6">
         <v>310</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="3">
         <v>4.7</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3">
         <v>2.1</v>
@@ -2166,65 +2244,66 @@
         <v>80</v>
       </c>
       <c r="F15" s="4">
-        <f>E15*D15</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K15" s="3">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
       <c r="L15" s="3">
-        <v>5.98</v>
+        <v>6.13</v>
       </c>
       <c r="M15" s="6">
         <v>310</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="3">
         <v>4.7</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3">
         <v>2.1</v>
@@ -2233,65 +2312,66 @@
         <v>80</v>
       </c>
       <c r="F16" s="4">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I16" s="4">
         <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K16" s="3">
-        <v>5.61</v>
+        <v>5.48</v>
       </c>
       <c r="L16" s="3">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
       <c r="M16" s="6">
         <v>310</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="3">
         <v>4.7</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3">
         <v>2.1</v>
@@ -2300,65 +2380,66 @@
         <v>80</v>
       </c>
       <c r="F17" s="4">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I17" s="4">
         <v>5</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K17" s="3">
-        <v>6.9</v>
+        <v>5.61</v>
       </c>
       <c r="L17" s="3">
-        <v>6.48</v>
+        <v>5.92</v>
       </c>
       <c r="M17" s="6">
         <v>310</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="3">
         <v>4.7</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3">
         <v>2.1</v>
@@ -2367,65 +2448,66 @@
         <v>80</v>
       </c>
       <c r="F18" s="4">
-        <f>E18*D18</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I18" s="4">
         <v>5</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K18" s="3">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L18" s="3">
-        <v>6.29</v>
+        <v>6.48</v>
       </c>
       <c r="M18" s="6">
         <v>310</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="3">
         <v>4.7</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3">
         <v>2.1</v>
@@ -2434,65 +2516,66 @@
         <v>80</v>
       </c>
       <c r="F19" s="4">
-        <f>E19*D19</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I19" s="4">
         <v>5</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K19" s="3">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="L19" s="3">
-        <v>6.13</v>
+        <v>6.29</v>
       </c>
       <c r="M19" s="6">
         <v>310</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="3">
         <v>4.7</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3">
         <v>2.1</v>
@@ -2501,65 +2584,66 @@
         <v>80</v>
       </c>
       <c r="F20" s="4">
-        <f>E20*D20</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4">
         <v>5</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K20" s="3">
-        <v>6.7</v>
+        <v>6.81</v>
       </c>
       <c r="L20" s="3">
-        <v>6.04</v>
+        <v>6.13</v>
       </c>
       <c r="M20" s="6">
         <v>310</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="3">
         <v>4.7</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>2.1</v>
@@ -2568,65 +2652,66 @@
         <v>80</v>
       </c>
       <c r="F21" s="4">
-        <f>E21*D21</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4">
         <v>5</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K21" s="3">
-        <v>6.57</v>
+        <v>6.7</v>
       </c>
       <c r="L21" s="3">
-        <v>5.95</v>
+        <v>6.04</v>
       </c>
       <c r="M21" s="6">
         <v>310</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="3">
         <v>4.7</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3">
         <v>2.1</v>
@@ -2635,65 +2720,66 @@
         <v>80</v>
       </c>
       <c r="F22" s="4">
-        <f>E22*D22</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I22" s="4">
         <v>5</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K22" s="3">
-        <v>6.3</v>
+        <v>6.57</v>
       </c>
       <c r="L22" s="3">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="M22" s="6">
         <v>310</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="3">
         <v>4.7</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3">
         <v>2.1</v>
@@ -2702,136 +2788,134 @@
         <v>80</v>
       </c>
       <c r="F23" s="4">
-        <f>E23*D23</f>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I23" s="4">
         <v>5</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K23" s="3">
-        <v>5.83</v>
+        <v>6.3</v>
       </c>
       <c r="L23" s="3">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="M23" s="6">
         <v>310</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="3">
         <v>4.7</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="E24" s="4">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <f>E24*D24</f>
+        <v>80</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I24" s="4">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3.8</v>
+        <v>5</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="K24" s="3">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="L24" s="3">
-        <v>5.23</v>
-      </c>
-      <c r="M24" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M24" s="6">
         <v>310</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="3">
         <v>4.7</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="X24" s="1">
-        <v>2</v>
-      </c>
+      <c r="W24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3">
         <v>6.3</v>
@@ -2840,13 +2924,14 @@
         <v>8</v>
       </c>
       <c r="F25" s="3">
-        <f>E25*D25</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="4">
         <v>15</v>
@@ -2855,31 +2940,31 @@
         <v>3.8</v>
       </c>
       <c r="K25" s="3">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="L25" s="3">
-        <v>5.42</v>
+        <v>5.23</v>
       </c>
       <c r="M25" s="4">
         <v>310</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q25" s="3">
         <v>4.7</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2894,15 +2979,15 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>118</v>
+      <c r="B26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D26" s="3">
         <v>6.3</v>
@@ -2911,46 +2996,47 @@
         <v>8</v>
       </c>
       <c r="F26" s="3">
-        <f>E26*D26</f>
+        <f t="shared" ref="F26" si="1">E26*D26</f>
+        <v>50.4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="I26" s="4">
         <v>15</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>121</v>
+      <c r="J26" s="3">
+        <v>3.8</v>
       </c>
       <c r="K26" s="3">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="L26" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="M26" s="6">
+        <v>5.19</v>
+      </c>
+      <c r="M26" s="4">
         <v>310</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q26" s="3">
         <v>4.7</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2965,15 +3051,15 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>125</v>
+      <c r="B27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="3">
         <v>6.3</v>
@@ -2982,46 +3068,47 @@
         <v>8</v>
       </c>
       <c r="F27" s="3">
-        <f>E27*D27</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="I27" s="4">
         <v>15</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>121</v>
+      <c r="J27" s="3">
+        <v>3.8</v>
       </c>
       <c r="K27" s="3">
-        <v>5.64</v>
+        <v>5.89</v>
       </c>
       <c r="L27" s="3">
-        <v>5.49</v>
-      </c>
-      <c r="M27" s="6">
+        <v>5.42</v>
+      </c>
+      <c r="M27" s="4">
         <v>310</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q27" s="3">
         <v>4.7</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3036,15 +3123,15 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
+      <c r="B28" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D28" s="3">
         <v>6.3</v>
@@ -3053,73 +3140,70 @@
         <v>8</v>
       </c>
       <c r="F28" s="3">
-        <f>E28*D28</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="I28" s="4">
         <v>15</v>
       </c>
-      <c r="J28" s="3">
-        <v>3.8</v>
+      <c r="J28" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="K28" s="3">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="L28" s="3">
-        <v>5.81</v>
+        <v>5.52</v>
       </c>
       <c r="M28" s="6">
         <v>310</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q28" s="3">
         <v>4.7</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T28" s="2"/>
-      <c r="U28" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="3">
-        <v>1.27</v>
-      </c>
-      <c r="X28" s="7">
-        <v>1.86</v>
+        <v>1.25</v>
+      </c>
+      <c r="X28" s="1">
+        <v>2</v>
       </c>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>2.47</v>
-      </c>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
+      <c r="B29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="3">
         <v>6.3</v>
@@ -3128,81 +3212,70 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <f>E29*D29</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="I29" s="4">
         <v>15</v>
       </c>
-      <c r="J29" s="3">
-        <v>3.8</v>
+      <c r="J29" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="K29" s="3">
-        <v>5.83</v>
+        <v>5.64</v>
       </c>
       <c r="L29" s="3">
-        <v>5.9</v>
+        <v>5.49</v>
       </c>
       <c r="M29" s="6">
         <v>310</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q29" s="3">
         <v>4.7</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="3">
-        <v>1.27</v>
-      </c>
-      <c r="X29" s="7">
-        <v>1.86</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z29" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="AA29" s="7">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>1.25</v>
+      </c>
+      <c r="X29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3">
         <v>6.3</v>
@@ -3211,13 +3284,14 @@
         <v>8</v>
       </c>
       <c r="F30" s="3">
-        <f>E30*D30</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4">
         <v>15</v>
@@ -3226,62 +3300,58 @@
         <v>3.8</v>
       </c>
       <c r="K30" s="3">
-        <v>5.87</v>
-      </c>
-      <c r="L30" s="4">
-        <v>6</v>
+        <v>5.73</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5.81</v>
       </c>
       <c r="M30" s="6">
         <v>310</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q30" s="3">
         <v>4.7</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V30" s="2"/>
       <c r="W30" s="3">
         <v>1.27</v>
       </c>
       <c r="X30" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3">
         <v>6.3</v>
@@ -3290,13 +3360,14 @@
         <v>8</v>
       </c>
       <c r="F31" s="3">
-        <f>E31*D31</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I31" s="4">
         <v>15</v>
@@ -3305,38 +3376,40 @@
         <v>3.8</v>
       </c>
       <c r="K31" s="3">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="L31" s="3">
-        <v>6.15</v>
+        <v>5.9</v>
       </c>
       <c r="M31" s="6">
         <v>310</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q31" s="3">
         <v>4.7</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U31" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="V31" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W31" s="3">
         <v>1.27</v>
@@ -3345,22 +3418,24 @@
         <v>1.86</v>
       </c>
       <c r="Y31" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z31" s="7"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="AA31" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D32" s="3">
         <v>6.3</v>
@@ -3369,13 +3444,14 @@
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <f>E32*D32</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="4">
         <v>15</v>
@@ -3384,38 +3460,38 @@
         <v>3.8</v>
       </c>
       <c r="K32" s="3">
-        <v>5.83</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6.25</v>
+        <v>5.87</v>
+      </c>
+      <c r="L32" s="4">
+        <v>6</v>
       </c>
       <c r="M32" s="6">
         <v>310</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q32" s="3">
         <v>4.7</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W32" s="3">
         <v>1.27</v>
@@ -3424,22 +3500,22 @@
         <v>1.86</v>
       </c>
       <c r="Y32" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D33" s="3">
         <v>6.3</v>
@@ -3448,13 +3524,14 @@
         <v>8</v>
       </c>
       <c r="F33" s="3">
-        <f>E33*D33</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="4">
         <v>15</v>
@@ -3463,38 +3540,38 @@
         <v>3.8</v>
       </c>
       <c r="K33" s="3">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="L33" s="3">
-        <v>6.21</v>
+        <v>6.15</v>
       </c>
       <c r="M33" s="6">
         <v>310</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q33" s="3">
         <v>4.7</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W33" s="3">
         <v>1.27</v>
@@ -3503,22 +3580,22 @@
         <v>1.86</v>
       </c>
       <c r="Y33" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D34" s="3">
         <v>6.3</v>
@@ -3527,13 +3604,14 @@
         <v>8</v>
       </c>
       <c r="F34" s="3">
-        <f>E34*D34</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="4">
         <v>15</v>
@@ -3542,38 +3620,38 @@
         <v>3.8</v>
       </c>
       <c r="K34" s="3">
-        <v>5.9</v>
+        <v>5.83</v>
       </c>
       <c r="L34" s="3">
-        <v>6.32</v>
+        <v>6.25</v>
       </c>
       <c r="M34" s="6">
         <v>310</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q34" s="3">
         <v>4.7</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W34" s="3">
         <v>1.27</v>
@@ -3582,22 +3660,22 @@
         <v>1.86</v>
       </c>
       <c r="Y34" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D35" s="3">
         <v>6.3</v>
@@ -3606,13 +3684,14 @@
         <v>8</v>
       </c>
       <c r="F35" s="3">
-        <f>E35*D35</f>
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="4">
         <v>15</v>
@@ -3621,58 +3700,62 @@
         <v>3.8</v>
       </c>
       <c r="K35" s="3">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="L35" s="3">
-        <v>5.79</v>
+        <v>6.21</v>
       </c>
       <c r="M35" s="6">
         <v>310</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="Q35" s="3">
         <v>4.7</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W35" s="3">
         <v>1.27</v>
       </c>
       <c r="X35" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="AA35" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="Y35" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3">
         <v>6.3</v>
@@ -3681,13 +3764,14 @@
         <v>8</v>
       </c>
       <c r="F36" s="3">
-        <f>E36*D36</f>
+        <f t="shared" ref="F36:F70" si="2">E36*D36</f>
+        <v>50.4</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="4">
         <v>15</v>
@@ -3696,40 +3780,38 @@
         <v>3.8</v>
       </c>
       <c r="K36" s="3">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="L36" s="3">
-        <v>5.88</v>
+        <v>6.32</v>
       </c>
       <c r="M36" s="6">
         <v>310</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="Q36" s="3">
         <v>4.7</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W36" s="3">
         <v>1.27</v>
@@ -3738,24 +3820,22 @@
         <v>1.86</v>
       </c>
       <c r="Y36" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z36" s="7">
-        <v>2.47</v>
-      </c>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z36" s="7"/>
       <c r="AA36" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D37" s="3">
         <v>6.3</v>
@@ -3764,13 +3844,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="3">
-        <f>E37*D37</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="4">
         <v>15</v>
@@ -3779,62 +3860,58 @@
         <v>3.8</v>
       </c>
       <c r="K37" s="3">
-        <v>5.93</v>
+        <v>5.81</v>
       </c>
       <c r="L37" s="3">
-        <v>5.99</v>
+        <v>5.79</v>
       </c>
       <c r="M37" s="6">
         <v>310</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q37" s="3">
         <v>4.7</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V37" s="2"/>
       <c r="W37" s="3">
         <v>1.27</v>
       </c>
       <c r="X37" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3">
         <v>6.3</v>
@@ -3843,13 +3920,14 @@
         <v>8</v>
       </c>
       <c r="F38" s="3">
-        <f>E38*D38</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="4">
         <v>15</v>
@@ -3858,38 +3936,40 @@
         <v>3.8</v>
       </c>
       <c r="K38" s="3">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="L38" s="3">
-        <v>6.13</v>
+        <v>5.88</v>
       </c>
       <c r="M38" s="6">
         <v>310</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="3">
         <v>4.7</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U38" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="V38" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W38" s="3">
         <v>1.27</v>
@@ -3898,22 +3978,24 @@
         <v>1.86</v>
       </c>
       <c r="Y38" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z38" s="7"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="AA38" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D39" s="3">
         <v>6.3</v>
@@ -3922,13 +4004,14 @@
         <v>8</v>
       </c>
       <c r="F39" s="3">
-        <f>E39*D39</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="4">
         <v>15</v>
@@ -3937,38 +4020,38 @@
         <v>3.8</v>
       </c>
       <c r="K39" s="3">
-        <v>5.8</v>
+        <v>5.93</v>
       </c>
       <c r="L39" s="3">
-        <v>6.25</v>
+        <v>5.99</v>
       </c>
       <c r="M39" s="6">
         <v>310</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q39" s="3">
         <v>4.7</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W39" s="3">
         <v>1.27</v>
@@ -3977,22 +4060,22 @@
         <v>1.86</v>
       </c>
       <c r="Y39" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D40" s="3">
         <v>6.3</v>
@@ -4001,13 +4084,14 @@
         <v>8</v>
       </c>
       <c r="F40" s="3">
-        <f>E40*D40</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="4">
         <v>15</v>
@@ -4016,38 +4100,38 @@
         <v>3.8</v>
       </c>
       <c r="K40" s="3">
-        <v>5.79</v>
+        <v>5.89</v>
       </c>
       <c r="L40" s="3">
-        <v>6.31</v>
+        <v>6.13</v>
       </c>
       <c r="M40" s="6">
         <v>310</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="3">
         <v>4.7</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W40" s="3">
         <v>1.27</v>
@@ -4056,22 +4140,22 @@
         <v>1.86</v>
       </c>
       <c r="Y40" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D41" s="3">
         <v>6.3</v>
@@ -4080,13 +4164,14 @@
         <v>8</v>
       </c>
       <c r="F41" s="3">
-        <f>E41*D41</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="4">
         <v>15</v>
@@ -4095,38 +4180,38 @@
         <v>3.8</v>
       </c>
       <c r="K41" s="3">
-        <v>5.99</v>
+        <v>5.8</v>
       </c>
       <c r="L41" s="3">
-        <v>6.34</v>
+        <v>6.25</v>
       </c>
       <c r="M41" s="6">
         <v>310</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q41" s="3">
         <v>4.7</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W41" s="3">
         <v>1.27</v>
@@ -4135,22 +4220,22 @@
         <v>1.86</v>
       </c>
       <c r="Y41" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D42" s="3">
         <v>6.3</v>
@@ -4159,13 +4244,14 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <f>E42*D42</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="4">
         <v>15</v>
@@ -4173,59 +4259,63 @@
       <c r="J42" s="3">
         <v>3.8</v>
       </c>
-      <c r="K42" s="4">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>5.79</v>
       </c>
       <c r="L42" s="3">
-        <v>5.79</v>
+        <v>6.31</v>
       </c>
       <c r="M42" s="6">
         <v>310</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="Q42" s="3">
         <v>4.7</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V42" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W42" s="3">
         <v>1.27</v>
       </c>
       <c r="X42" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="AA42" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="Y42" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3">
         <v>6.3</v>
@@ -4234,13 +4324,14 @@
         <v>8</v>
       </c>
       <c r="F43" s="3">
-        <f>E43*D43</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="4">
         <v>15</v>
@@ -4249,40 +4340,38 @@
         <v>3.8</v>
       </c>
       <c r="K43" s="3">
-        <v>5.73</v>
+        <v>5.99</v>
       </c>
       <c r="L43" s="3">
-        <v>5.84</v>
+        <v>6.34</v>
       </c>
       <c r="M43" s="6">
         <v>310</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="Q43" s="3">
         <v>4.7</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="U43" s="2"/>
       <c r="V43" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W43" s="3">
         <v>1.27</v>
@@ -4291,24 +4380,22 @@
         <v>1.86</v>
       </c>
       <c r="Y43" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z43" s="7">
-        <v>2.47</v>
-      </c>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z43" s="7"/>
       <c r="AA43" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D44" s="3">
         <v>6.3</v>
@@ -4317,13 +4404,14 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <f>E44*D44</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="4">
         <v>15</v>
@@ -4331,63 +4419,59 @@
       <c r="J44" s="3">
         <v>3.8</v>
       </c>
-      <c r="K44" s="3">
-        <v>5.76</v>
+      <c r="K44" s="4">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="M44" s="6">
         <v>310</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q44" s="3">
         <v>4.7</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V44" s="2"/>
       <c r="W44" s="3">
         <v>1.27</v>
       </c>
       <c r="X44" s="7">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AA44" s="7"/>
+    </row>
+    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D45" s="3">
         <v>6.3</v>
@@ -4396,13 +4480,14 @@
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <f>E45*D45</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="4">
         <v>15</v>
@@ -4411,38 +4496,40 @@
         <v>3.8</v>
       </c>
       <c r="K45" s="3">
-        <v>5.66</v>
-      </c>
-      <c r="L45" s="4">
-        <v>6</v>
+        <v>5.73</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5.84</v>
       </c>
       <c r="M45" s="6">
         <v>310</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q45" s="3">
         <v>4.7</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U45" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="V45" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W45" s="3">
         <v>1.27</v>
@@ -4451,22 +4538,24 @@
         <v>1.86</v>
       </c>
       <c r="Y45" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="Z45" s="7"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="AA45" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D46" s="3">
         <v>6.3</v>
@@ -4475,13 +4564,14 @@
         <v>8</v>
       </c>
       <c r="F46" s="3">
-        <f>E46*D46</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="4">
         <v>15</v>
@@ -4490,38 +4580,38 @@
         <v>3.8</v>
       </c>
       <c r="K46" s="3">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="L46" s="3">
-        <v>6.21</v>
+        <v>5.88</v>
       </c>
       <c r="M46" s="6">
         <v>310</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="3">
         <v>4.7</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W46" s="3">
         <v>1.27</v>
@@ -4530,22 +4620,22 @@
         <v>1.86</v>
       </c>
       <c r="Y46" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D47" s="3">
         <v>6.3</v>
@@ -4554,13 +4644,14 @@
         <v>8</v>
       </c>
       <c r="F47" s="3">
-        <f>E47*D47</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" s="4">
         <v>15</v>
@@ -4569,38 +4660,38 @@
         <v>3.8</v>
       </c>
       <c r="K47" s="3">
-        <v>5.86</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6.28</v>
+        <v>5.66</v>
+      </c>
+      <c r="L47" s="4">
+        <v>6</v>
       </c>
       <c r="M47" s="6">
         <v>310</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q47" s="3">
         <v>4.7</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W47" s="3">
         <v>1.27</v>
@@ -4609,22 +4700,22 @@
         <v>1.86</v>
       </c>
       <c r="Y47" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+    <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D48" s="3">
         <v>6.3</v>
@@ -4633,13 +4724,14 @@
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <f>E48*D48</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="4">
         <v>15</v>
@@ -4648,38 +4740,38 @@
         <v>3.8</v>
       </c>
       <c r="K48" s="3">
-        <v>5.98</v>
+        <v>5.67</v>
       </c>
       <c r="L48" s="3">
-        <v>6.37</v>
+        <v>6.21</v>
       </c>
       <c r="M48" s="6">
         <v>310</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q48" s="3">
         <v>4.7</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W48" s="3">
         <v>1.27</v>
@@ -4688,22 +4780,22 @@
         <v>1.86</v>
       </c>
       <c r="Y48" s="7">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7">
         <v>1.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+    <row r="49" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3">
         <v>6.3</v>
@@ -4712,13 +4804,14 @@
         <v>8</v>
       </c>
       <c r="F49" s="3">
-        <f>E49*D49</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="4">
         <v>15</v>
@@ -4727,39 +4820,39 @@
         <v>3.8</v>
       </c>
       <c r="K49" s="3">
-        <v>5.65</v>
+        <v>5.86</v>
       </c>
       <c r="L49" s="3">
-        <v>5.41</v>
+        <v>6.28</v>
       </c>
       <c r="M49" s="6">
         <v>310</v>
       </c>
       <c r="N49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P49" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q49" s="3">
         <v>4.7</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V49" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W49" s="3">
         <v>1.27</v>
       </c>
@@ -4767,22 +4860,22 @@
         <v>1.86</v>
       </c>
       <c r="Y49" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="AA49" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D50" s="3">
         <v>6.3</v>
@@ -4791,13 +4884,14 @@
         <v>8</v>
       </c>
       <c r="F50" s="3">
-        <f>E50*D50</f>
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="4">
         <v>15</v>
@@ -4806,39 +4900,39 @@
         <v>3.8</v>
       </c>
       <c r="K50" s="3">
-        <v>5.73</v>
+        <v>5.98</v>
       </c>
       <c r="L50" s="3">
-        <v>5.24</v>
+        <v>6.37</v>
       </c>
       <c r="M50" s="6">
         <v>310</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q50" s="3">
         <v>4.7</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V50" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W50" s="3">
         <v>1.27</v>
       </c>
@@ -4846,493 +4940,542 @@
         <v>1.86</v>
       </c>
       <c r="Y50" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="Z50" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="AA50" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>187</v>
+      <c r="B51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D51" s="3">
-        <v>15.5</v>
+        <v>6.3</v>
       </c>
       <c r="E51" s="4">
         <v>8</v>
       </c>
-      <c r="F51" s="4">
-        <f>E51*D51</f>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="I51" s="4">
         <v>15</v>
       </c>
       <c r="J51" s="3">
-        <v>2.47</v>
+        <v>3.8</v>
       </c>
       <c r="K51" s="3">
-        <v>5.9</v>
+        <v>5.65</v>
       </c>
       <c r="L51" s="3">
-        <v>5.62</v>
+        <v>5.41</v>
       </c>
       <c r="M51" s="6">
         <v>310</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="Q51" s="3">
         <v>4.7</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="V51" s="2"/>
       <c r="W51" s="3">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X51" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
+        <v>1.86</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="AA51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+    <row r="52" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>191</v>
+      <c r="B52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D52" s="3">
-        <v>15.5</v>
+        <v>6.3</v>
       </c>
       <c r="E52" s="4">
         <v>8</v>
       </c>
-      <c r="F52" s="4">
-        <f>E52*D52</f>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>50.4</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="I52" s="4">
         <v>15</v>
       </c>
       <c r="J52" s="3">
-        <v>2.47</v>
+        <v>3.8</v>
       </c>
       <c r="K52" s="3">
-        <v>5.87</v>
+        <v>5.73</v>
       </c>
       <c r="L52" s="3">
-        <v>5.65</v>
+        <v>5.24</v>
       </c>
       <c r="M52" s="6">
         <v>310</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="3">
         <v>4.7</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="V52" s="2"/>
       <c r="W52" s="3">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X52" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
+        <v>1.86</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="AA52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+    <row r="53" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="D53" s="3">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="E53" s="4">
         <v>8</v>
       </c>
       <c r="F53" s="4">
-        <f>E53*D53</f>
+        <f t="shared" si="2"/>
+        <v>124</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I53" s="4">
         <v>15</v>
       </c>
-      <c r="J53" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K53" s="3"/>
+      <c r="J53" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K53" s="3">
+        <v>5.9</v>
+      </c>
       <c r="L53" s="3">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="M53" s="6">
         <v>310</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q53" s="3">
         <v>4.7</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S53" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X53" s="7"/>
+      <c r="W53" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="X53" s="7">
+        <v>1.98</v>
+      </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+    <row r="54" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>198</v>
+      <c r="B54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="D54" s="3">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="E54" s="4">
         <v>8</v>
       </c>
       <c r="F54" s="4">
-        <f>E54*D54</f>
+        <f t="shared" ref="F54:F56" si="3">E54*D54</f>
+        <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I54" s="4">
         <v>15</v>
       </c>
-      <c r="J54" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K54" s="3"/>
+      <c r="J54" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K54" s="3">
+        <v>5.87</v>
+      </c>
       <c r="L54" s="3">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="M54" s="6">
         <v>310</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q54" s="3">
         <v>4.7</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S54" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X54" s="7"/>
+      <c r="W54" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="X54" s="7">
+        <v>1.98</v>
+      </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+    <row r="55" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>202</v>
+      <c r="B55" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D55" s="3">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="E55" s="4">
         <v>8</v>
       </c>
       <c r="F55" s="4">
-        <f>E55*D55</f>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I55" s="4">
         <v>15</v>
       </c>
-      <c r="J55" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K55" s="3"/>
+      <c r="J55" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K55" s="3">
+        <v>5.85</v>
+      </c>
       <c r="L55" s="3">
-        <v>5.53</v>
+        <v>5.51</v>
       </c>
       <c r="M55" s="6">
         <v>310</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q55" s="3">
         <v>4.7</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S55" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X55" s="7"/>
+      <c r="W55" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="X55" s="7">
+        <v>1.98</v>
+      </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+    <row r="56" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>206</v>
+      <c r="B56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D56" s="3">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="E56" s="4">
         <v>8</v>
       </c>
       <c r="F56" s="4">
-        <f>E56*D56</f>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I56" s="4">
         <v>15</v>
       </c>
-      <c r="J56" s="5">
-        <v>6.653</v>
+      <c r="J56" s="3">
+        <v>2.4700000000000002</v>
       </c>
       <c r="K56" s="3">
-        <v>7.03</v>
+        <v>5.89</v>
       </c>
       <c r="L56" s="3">
-        <v>7.18</v>
+        <v>5.7</v>
       </c>
       <c r="M56" s="6">
         <v>310</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="3">
         <v>4.7</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S56" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X56" s="7"/>
+      <c r="W56" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="X56" s="7">
+        <v>1.98</v>
+      </c>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+    <row r="57" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D57" s="3">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="E57" s="4">
         <v>8</v>
       </c>
       <c r="F57" s="4">
-        <f>E57*D57</f>
+        <f t="shared" si="2"/>
+        <v>124</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="I57" s="4">
         <v>15</v>
       </c>
-      <c r="J57" s="5">
-        <v>6.653</v>
+      <c r="J57" s="3">
+        <v>2.4700000000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>6.96</v>
+        <v>5.87</v>
       </c>
       <c r="L57" s="3">
-        <v>7.29</v>
+        <v>5.65</v>
       </c>
       <c r="M57" s="6">
         <v>310</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="3">
         <v>4.7</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S57" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X57" s="7"/>
+      <c r="W57" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="X57" s="7">
+        <v>1.98</v>
+      </c>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+    <row r="58" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D58" s="3">
         <v>11.5</v>
@@ -5341,65 +5484,64 @@
         <v>8</v>
       </c>
       <c r="F58" s="4">
-        <f>E58*D58</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I58" s="4">
         <v>15</v>
       </c>
       <c r="J58" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K58" s="3">
-        <v>6.99</v>
-      </c>
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3">
-        <v>7.12</v>
+        <v>5.63</v>
       </c>
       <c r="M58" s="6">
         <v>310</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q58" s="3">
         <v>4.7</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+    <row r="59" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D59" s="3">
         <v>11.5</v>
@@ -5408,65 +5550,64 @@
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <f>E59*D59</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I59" s="4">
         <v>15</v>
       </c>
       <c r="J59" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K59" s="3">
-        <v>6.87</v>
-      </c>
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="3">
-        <v>6.92</v>
+        <v>5.53</v>
       </c>
       <c r="M59" s="6">
         <v>310</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q59" s="3">
         <v>4.7</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+    <row r="60" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3">
         <v>11.5</v>
@@ -5475,65 +5616,64 @@
         <v>8</v>
       </c>
       <c r="F60" s="4">
-        <f>E60*D60</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I60" s="4">
         <v>15</v>
       </c>
       <c r="J60" s="5">
-        <v>6.653</v>
-      </c>
-      <c r="K60" s="3">
-        <v>7.07</v>
-      </c>
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K60" s="3"/>
       <c r="L60" s="3">
-        <v>7.15</v>
+        <v>5.53</v>
       </c>
       <c r="M60" s="6">
         <v>310</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q60" s="3">
         <v>4.7</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+    <row r="61" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D61" s="3">
         <v>11.5</v>
@@ -5542,65 +5682,66 @@
         <v>8</v>
       </c>
       <c r="F61" s="4">
-        <f>E61*D61</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I61" s="4">
         <v>15</v>
       </c>
       <c r="J61" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K61" s="3">
-        <v>5.81</v>
+        <v>7.03</v>
       </c>
       <c r="L61" s="3">
-        <v>5.86</v>
+        <v>7.18</v>
       </c>
       <c r="M61" s="6">
         <v>310</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="O61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q61" s="3">
         <v>4.7</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+    <row r="62" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D62" s="3">
         <v>11.5</v>
@@ -5609,65 +5750,66 @@
         <v>8</v>
       </c>
       <c r="F62" s="4">
-        <f>E62*D62</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I62" s="4">
         <v>15</v>
       </c>
       <c r="J62" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K62" s="3">
-        <v>5.9</v>
+        <v>6.96</v>
       </c>
       <c r="L62" s="3">
-        <v>5.81</v>
+        <v>7.29</v>
       </c>
       <c r="M62" s="6">
         <v>310</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="3">
         <v>4.7</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+    <row r="63" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D63" s="3">
         <v>11.5</v>
@@ -5676,65 +5818,66 @@
         <v>8</v>
       </c>
       <c r="F63" s="4">
-        <f>E63*D63</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I63" s="4">
         <v>15</v>
       </c>
       <c r="J63" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K63" s="3">
-        <v>5.84</v>
+        <v>6.99</v>
       </c>
       <c r="L63" s="3">
-        <v>3.92</v>
+        <v>7.12</v>
       </c>
       <c r="M63" s="6">
         <v>310</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="3">
         <v>4.7</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+    <row r="64" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D64" s="3">
         <v>11.5</v>
@@ -5743,65 +5886,66 @@
         <v>8</v>
       </c>
       <c r="F64" s="4">
-        <f>E64*D64</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I64" s="4">
         <v>15</v>
       </c>
       <c r="J64" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K64" s="3">
-        <v>7.08</v>
+        <v>6.87</v>
       </c>
       <c r="L64" s="3">
-        <v>7.16</v>
+        <v>6.92</v>
       </c>
       <c r="M64" s="6">
         <v>310</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="3">
         <v>4.7</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+    <row r="65" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D65" s="3">
         <v>11.5</v>
@@ -5810,65 +5954,66 @@
         <v>8</v>
       </c>
       <c r="F65" s="4">
-        <f>E65*D65</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I65" s="4">
         <v>15</v>
       </c>
       <c r="J65" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K65" s="3">
-        <v>6.83</v>
+        <v>7.07</v>
       </c>
       <c r="L65" s="3">
-        <v>6.89</v>
+        <v>7.15</v>
       </c>
       <c r="M65" s="6">
         <v>310</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="3">
         <v>4.7</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+    <row r="66" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D66" s="3">
         <v>11.5</v>
@@ -5877,65 +6022,66 @@
         <v>8</v>
       </c>
       <c r="F66" s="4">
-        <f>E66*D66</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I66" s="4">
         <v>15</v>
       </c>
       <c r="J66" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K66" s="3">
-        <v>7.12</v>
+        <v>5.81</v>
       </c>
       <c r="L66" s="3">
-        <v>7.23</v>
+        <v>5.86</v>
       </c>
       <c r="M66" s="6">
         <v>310</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q66" s="3">
         <v>4.7</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+    <row r="67" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D67" s="3">
         <v>11.5</v>
@@ -5944,65 +6090,66 @@
         <v>8</v>
       </c>
       <c r="F67" s="4">
-        <f>E67*D67</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I67" s="4">
         <v>15</v>
       </c>
       <c r="J67" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K67" s="3">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="L67" s="3">
-        <v>4.09</v>
+        <v>5.81</v>
       </c>
       <c r="M67" s="6">
         <v>310</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q67" s="3">
         <v>4.7</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+    <row r="68" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3">
         <v>11.5</v>
@@ -6011,186 +6158,529 @@
         <v>8</v>
       </c>
       <c r="F68" s="4">
-        <f>E68*D68</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I68" s="4">
         <v>15</v>
       </c>
       <c r="J68" s="5">
-        <v>6.653</v>
+        <v>6.6529999999999996</v>
       </c>
       <c r="K68" s="3">
-        <v>5.93</v>
+        <v>5.84</v>
       </c>
       <c r="L68" s="3">
-        <v>5.9</v>
+        <v>3.92</v>
       </c>
       <c r="M68" s="6">
         <v>310</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="O68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q68" s="3">
         <v>4.7</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+    <row r="69" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D69" s="3">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="E69" s="4">
         <v>8</v>
       </c>
       <c r="F69" s="4">
-        <f>E69*D69</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="4">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I69" s="4">
         <v>15</v>
       </c>
       <c r="J69" s="5">
-        <v>2.323</v>
-      </c>
-      <c r="K69" s="3"/>
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K69" s="3">
+        <v>7.08</v>
+      </c>
       <c r="L69" s="3">
-        <v>5.23</v>
+        <v>7.16</v>
       </c>
       <c r="M69" s="6">
         <v>310</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="O69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q69" s="3">
         <v>4.7</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="5">
-        <v>1.201</v>
+      <c r="W69" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+    <row r="70" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D70" s="3">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
       </c>
       <c r="F70" s="4">
-        <f>E70*D70</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="4">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I70" s="4">
         <v>15</v>
       </c>
       <c r="J70" s="5">
-        <v>2.323</v>
-      </c>
-      <c r="K70" s="3"/>
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K70" s="3">
+        <v>6.83</v>
+      </c>
       <c r="L70" s="3">
-        <v>5.15</v>
+        <v>6.89</v>
       </c>
       <c r="M70" s="6">
         <v>310</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="O70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q70" s="3">
         <v>4.7</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="5">
-        <v>1.201</v>
+      <c r="W70" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
     </row>
+    <row r="71" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" ref="F71:F102" si="4">E71*D71</f>
+        <v>92</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="4">
+        <v>15</v>
+      </c>
+      <c r="J71" s="5">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K71" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="L71" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="M71" s="6">
+        <v>310</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+    </row>
+    <row r="72" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="4">
+        <v>15</v>
+      </c>
+      <c r="J72" s="5">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K72" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="L72" s="3">
+        <v>4.09</v>
+      </c>
+      <c r="M72" s="6">
+        <v>310</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+    </row>
+    <row r="73" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E73" s="4">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" s="4">
+        <v>15</v>
+      </c>
+      <c r="J73" s="5">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="K73" s="3">
+        <v>5.93</v>
+      </c>
+      <c r="L73" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="M73" s="6">
+        <v>310</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+    </row>
+    <row r="74" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="E74" s="4">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="4">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4">
+        <v>15</v>
+      </c>
+      <c r="J74" s="5">
+        <v>2.323</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="M74" s="6">
+        <v>310</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="5">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+    </row>
+    <row r="75" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="4">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4">
+        <v>15</v>
+      </c>
+      <c r="J75" s="5">
+        <v>2.323</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="M75" s="6">
+        <v>310</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="5">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uni-kiel.de\files\rad\MRI_group\projects\2022_D_Xe_project\LOCAL-Git_Fanum\student_Deuterium\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Data_Science\Sem2_Application_Project\MoinCC-AI4metabolomics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F19F6-FCE9-4DD8-AD66-0FDF78A7A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE0DBF-EB2F-4393-AD6B-0C3BDA2D8955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="615" windowWidth="21195" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,9 +907,6 @@
     <t>FA_20240806_2H_yeast_1_3</t>
   </si>
   <si>
-    <t>FA_20240806_2H_yeast_Reference_standard_PBS_3.ser.csv</t>
-  </si>
-  <si>
     <t>PBS</t>
   </si>
   <si>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>FA_20240806_2H_yeast_Reference_standard_PBS.ser.csv</t>
   </si>
 </sst>
 </file>
@@ -1009,12 +1009,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,33 +1026,33 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,5557 +1244,5557 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="5" customWidth="1"/>
-    <col min="8" max="9" width="34.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="34.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="27.5703125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="21" style="5" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="23" style="6" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.7265625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="34.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="34.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.7265625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.26953125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20" style="4" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="26.81640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="27.54296875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="21" style="4" customWidth="1"/>
+    <col min="23" max="23" width="24.7265625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.7265625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="23" style="5" customWidth="1"/>
+    <col min="26" max="26" width="20.81640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>17.5</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f t="shared" ref="F2:F33" si="0">E2*D2</f>
         <v>140</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>6</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>15</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>2.323</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M2" s="12">
-        <v>310</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="11">
+        <v>310</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="11">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="10">
         <v>1.2010000000000001</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>11.5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>15</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8">
         <v>5.62</v>
       </c>
-      <c r="M3" s="12">
-        <v>310</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="11">
+        <v>310</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="11" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>11.5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>15</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
         <v>5.6</v>
       </c>
-      <c r="M4" s="12">
-        <v>310</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="11">
+        <v>310</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R4" s="8" t="s">
+      <c r="Q4" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="11" t="s">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-    </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>11.5</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>15</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
         <v>5.63</v>
       </c>
-      <c r="M5" s="12">
-        <v>310</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="11">
+        <v>310</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R5" s="8" t="s">
+      <c r="Q5" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="11" t="s">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-    </row>
-    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>11.5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>15</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
         <v>5.63</v>
       </c>
-      <c r="M6" s="12">
-        <v>310</v>
-      </c>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="11">
+        <v>310</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R6" s="8" t="s">
+      <c r="Q6" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="11" t="s">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-    </row>
-    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2.5</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>15</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <v>5.89</v>
       </c>
-      <c r="M7" s="12">
-        <v>310</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="M7" s="11">
+        <v>310</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R7" s="8" t="s">
+      <c r="Q7" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="11" t="s">
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-    </row>
-    <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>11.5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>8</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>15</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
         <v>6</v>
       </c>
-      <c r="M8" s="12">
-        <v>310</v>
-      </c>
-      <c r="N8" s="8" t="s">
+      <c r="M8" s="11">
+        <v>310</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R8" s="8" t="s">
+      <c r="Q8" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="11" t="s">
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-    </row>
-    <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>11.5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>8</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>15</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
         <v>7.08</v>
       </c>
-      <c r="M9" s="12">
-        <v>310</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="11">
+        <v>310</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R9" s="8" t="s">
+      <c r="Q9" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="11" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>11.5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>8</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>15</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
         <v>5.69</v>
       </c>
-      <c r="M10" s="12">
-        <v>310</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="M10" s="11">
+        <v>310</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R10" s="8" t="s">
+      <c r="Q10" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="11" t="s">
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>15</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
         <v>5.67</v>
       </c>
-      <c r="M11" s="12">
-        <v>310</v>
-      </c>
-      <c r="N11" s="8" t="s">
+      <c r="M11" s="11">
+        <v>310</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R11" s="8" t="s">
+      <c r="Q11" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="11" t="s">
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2.5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>8</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>15</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
         <v>5.97</v>
       </c>
-      <c r="M12" s="12">
-        <v>310</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="M12" s="11">
+        <v>310</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R12" s="8" t="s">
+      <c r="Q12" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="11" t="s">
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>2.5</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>15</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8">
         <v>7.11</v>
       </c>
-      <c r="M13" s="12">
-        <v>310</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="M13" s="11">
+        <v>310</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R13" s="8" t="s">
+      <c r="Q13" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="11" t="s">
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>2.1</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>80</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>5</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>5.63</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>5.93</v>
       </c>
-      <c r="M14" s="12">
-        <v>310</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="11">
+        <v>310</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R14" s="8" t="s">
+      <c r="Q14" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="11" t="s">
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-    </row>
-    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>2.1</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>80</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>5</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>5.52</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>6.13</v>
       </c>
-      <c r="M15" s="12">
-        <v>310</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="M15" s="11">
+        <v>310</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="Q15" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="11" t="s">
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-    </row>
-    <row r="16" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>2.1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>80</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>5</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>5.48</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>5.98</v>
       </c>
-      <c r="M16" s="12">
-        <v>310</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="11">
+        <v>310</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q16" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R16" s="8" t="s">
+      <c r="Q16" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="11" t="s">
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-    </row>
-    <row r="17" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>2.1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>80</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>5</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>5.61</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>5.92</v>
       </c>
-      <c r="M17" s="12">
-        <v>310</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="M17" s="11">
+        <v>310</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R17" s="8" t="s">
+      <c r="Q17" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="11" t="s">
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-    </row>
-    <row r="18" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>2.1</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>80</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>5</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>6.9</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>6.48</v>
       </c>
-      <c r="M18" s="12">
-        <v>310</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="M18" s="11">
+        <v>310</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R18" s="8" t="s">
+      <c r="Q18" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="11" t="s">
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-    </row>
-    <row r="19" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>2.1</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>80</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>5</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>6.8</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>6.29</v>
       </c>
-      <c r="M19" s="12">
-        <v>310</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="M19" s="11">
+        <v>310</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R19" s="8" t="s">
+      <c r="Q19" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="11" t="s">
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-    </row>
-    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>2.1</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>80</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>5</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>6.81</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>6.13</v>
       </c>
-      <c r="M20" s="12">
-        <v>310</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="M20" s="11">
+        <v>310</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R20" s="8" t="s">
+      <c r="Q20" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="11" t="s">
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-    </row>
-    <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>2.1</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>80</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>5</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>6.7</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>6.04</v>
       </c>
-      <c r="M21" s="12">
-        <v>310</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="M21" s="11">
+        <v>310</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R21" s="8" t="s">
+      <c r="Q21" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="11" t="s">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>2.1</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>80</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>5</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>6.57</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>5.95</v>
       </c>
-      <c r="M22" s="12">
-        <v>310</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="11">
+        <v>310</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R22" s="8" t="s">
+      <c r="Q22" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="11" t="s">
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-    </row>
-    <row r="23" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>2.1</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>80</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>5</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>6.3</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>5.91</v>
       </c>
-      <c r="M23" s="12">
-        <v>310</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="M23" s="11">
+        <v>310</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R23" s="8" t="s">
+      <c r="Q23" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="11" t="s">
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-    </row>
-    <row r="24" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+    </row>
+    <row r="24" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>2.1</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>80</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>5</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>5.83</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>5.89</v>
       </c>
-      <c r="M24" s="12">
-        <v>310</v>
-      </c>
-      <c r="N24" s="8" t="s">
+      <c r="M24" s="11">
+        <v>310</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q24" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R24" s="8" t="s">
+      <c r="Q24" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="11" t="s">
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-    </row>
-    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>6.3</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>8</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>15</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="J25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="8">
         <v>5.85</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>5.23</v>
       </c>
-      <c r="M25" s="10">
-        <v>310</v>
-      </c>
-      <c r="N25" s="8" t="s">
+      <c r="M25" s="9">
+        <v>310</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R25" s="8" t="s">
+      <c r="Q25" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="9">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8">
         <v>1.25</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <v>2</v>
       </c>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-    </row>
-    <row r="26" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+    </row>
+    <row r="26" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>6.3</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>8</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>15</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="J26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="8">
         <v>5.72</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>5.19</v>
       </c>
-      <c r="M26" s="10">
-        <v>310</v>
-      </c>
-      <c r="N26" s="8" t="s">
+      <c r="M26" s="9">
+        <v>310</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R26" s="8" t="s">
+      <c r="Q26" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="9">
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8">
         <v>1.25</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="6">
         <v>2</v>
       </c>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-    </row>
-    <row r="27" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+    </row>
+    <row r="27" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>6.3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>8</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>15</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="J27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="8">
         <v>5.89</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>5.42</v>
       </c>
-      <c r="M27" s="10">
-        <v>310</v>
-      </c>
-      <c r="N27" s="8" t="s">
+      <c r="M27" s="9">
+        <v>310</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R27" s="8" t="s">
+      <c r="Q27" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="8">
         <v>1.25</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="6">
         <v>2</v>
       </c>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+    </row>
+    <row r="28" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>6.3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>8</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>15</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>5.75</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>5.52</v>
       </c>
-      <c r="M28" s="12">
-        <v>310</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="M28" s="11">
+        <v>310</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R28" s="8" t="s">
+      <c r="Q28" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="9">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="8">
         <v>1.25</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="6">
         <v>2</v>
       </c>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-    </row>
-    <row r="29" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+    </row>
+    <row r="29" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>6.3</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>8</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>15</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>5.64</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>5.49</v>
       </c>
-      <c r="M29" s="12">
-        <v>310</v>
-      </c>
-      <c r="N29" s="8" t="s">
+      <c r="M29" s="11">
+        <v>310</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R29" s="8" t="s">
+      <c r="Q29" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="9">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8">
         <v>1.25</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <v>2</v>
       </c>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-    </row>
-    <row r="30" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+    </row>
+    <row r="30" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>6.3</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>8</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>15</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="J30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="8">
         <v>5.73</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>5.81</v>
       </c>
-      <c r="M30" s="12">
-        <v>310</v>
-      </c>
-      <c r="N30" s="8" t="s">
+      <c r="M30" s="11">
+        <v>310</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q30" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R30" s="8" t="s">
+      <c r="Q30" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8" t="s">
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="9">
+      <c r="V30" s="7"/>
+      <c r="W30" s="8">
         <v>1.27</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13">
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA30" s="13"/>
-    </row>
-    <row r="31" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="AA30" s="12"/>
+    </row>
+    <row r="31" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>6.3</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>8</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>15</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="J31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" s="8">
         <v>5.83</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>5.9</v>
       </c>
-      <c r="M31" s="12">
-        <v>310</v>
-      </c>
-      <c r="N31" s="8" t="s">
+      <c r="M31" s="11">
+        <v>310</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R31" s="8" t="s">
+      <c r="Q31" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U31" s="8" t="s">
+      <c r="U31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V31" s="8" t="s">
+      <c r="V31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="8">
         <v>1.27</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>6.3</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>8</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>15</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="J32" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="8">
         <v>5.87</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>6</v>
       </c>
-      <c r="M32" s="12">
-        <v>310</v>
-      </c>
-      <c r="N32" s="8" t="s">
+      <c r="M32" s="11">
+        <v>310</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q32" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R32" s="8" t="s">
+      <c r="Q32" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8" t="s">
+      <c r="U32" s="7"/>
+      <c r="V32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W32" s="8">
         <v>1.27</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13">
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>6.3</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>8</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>15</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="J33" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" s="8">
         <v>5.85</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>6.15</v>
       </c>
-      <c r="M33" s="12">
-        <v>310</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="M33" s="11">
+        <v>310</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R33" s="8" t="s">
+      <c r="Q33" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="T33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8" t="s">
+      <c r="U33" s="7"/>
+      <c r="V33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="8">
         <v>1.27</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13">
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>6.3</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>8</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <f t="shared" ref="F34:F65" si="1">E34*D34</f>
         <v>50.4</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>15</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K34" s="9">
+      <c r="J34" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="8">
         <v>5.83</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>6.25</v>
       </c>
-      <c r="M34" s="12">
-        <v>310</v>
-      </c>
-      <c r="N34" s="8" t="s">
+      <c r="M34" s="11">
+        <v>310</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R34" s="8" t="s">
+      <c r="Q34" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8" t="s">
+      <c r="U34" s="7"/>
+      <c r="V34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="8">
         <v>1.27</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y34" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13">
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>6.3</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>8</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>15</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="J35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" s="8">
         <v>5.8</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>6.21</v>
       </c>
-      <c r="M35" s="12">
-        <v>310</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="M35" s="11">
+        <v>310</v>
+      </c>
+      <c r="N35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R35" s="8" t="s">
+      <c r="Q35" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="T35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8" t="s">
+      <c r="U35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="8">
         <v>1.27</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y35" s="13">
+      <c r="Y35" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13">
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>6.3</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>8</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>15</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="J36" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="8">
         <v>5.9</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>6.32</v>
       </c>
-      <c r="M36" s="12">
-        <v>310</v>
-      </c>
-      <c r="N36" s="8" t="s">
+      <c r="M36" s="11">
+        <v>310</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q36" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R36" s="8" t="s">
+      <c r="Q36" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="T36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8" t="s">
+      <c r="U36" s="7"/>
+      <c r="V36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="8">
         <v>1.27</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y36" s="13">
+      <c r="Y36" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13">
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>6.3</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>8</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>15</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="J37" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="8">
         <v>5.81</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>5.79</v>
       </c>
-      <c r="M37" s="12">
-        <v>310</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="M37" s="11">
+        <v>310</v>
+      </c>
+      <c r="N37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="O37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q37" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R37" s="8" t="s">
+      <c r="Q37" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8" t="s">
+      <c r="T37" s="7"/>
+      <c r="U37" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V37" s="8"/>
-      <c r="W37" s="9">
+      <c r="V37" s="7"/>
+      <c r="W37" s="8">
         <v>1.27</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13">
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA37" s="13"/>
-    </row>
-    <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="AA37" s="12"/>
+    </row>
+    <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>6.3</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>8</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>15</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="J38" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K38" s="8">
         <v>5.91</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>5.88</v>
       </c>
-      <c r="M38" s="12">
-        <v>310</v>
-      </c>
-      <c r="N38" s="8" t="s">
+      <c r="M38" s="11">
+        <v>310</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q38" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R38" s="8" t="s">
+      <c r="Q38" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="S38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U38" s="8" t="s">
+      <c r="U38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V38" s="8" t="s">
+      <c r="V38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="8">
         <v>1.27</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y38" s="13">
+      <c r="Y38" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>6.3</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>8</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>15</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K39" s="9">
+      <c r="J39" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" s="8">
         <v>5.93</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>5.99</v>
       </c>
-      <c r="M39" s="12">
-        <v>310</v>
-      </c>
-      <c r="N39" s="8" t="s">
+      <c r="M39" s="11">
+        <v>310</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q39" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R39" s="8" t="s">
+      <c r="Q39" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8" t="s">
+      <c r="U39" s="7"/>
+      <c r="V39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="8">
         <v>1.27</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13">
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>6.3</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>8</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>15</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="J40" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" s="8">
         <v>5.89</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>6.13</v>
       </c>
-      <c r="M40" s="12">
-        <v>310</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="M40" s="11">
+        <v>310</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q40" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R40" s="8" t="s">
+      <c r="Q40" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="S40" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8" t="s">
+      <c r="U40" s="7"/>
+      <c r="V40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="8">
         <v>1.27</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Y40" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13">
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>6.3</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>8</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>15</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K41" s="9">
+      <c r="J41" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="8">
         <v>5.8</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>6.25</v>
       </c>
-      <c r="M41" s="12">
-        <v>310</v>
-      </c>
-      <c r="N41" s="8" t="s">
+      <c r="M41" s="11">
+        <v>310</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="O41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q41" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R41" s="8" t="s">
+      <c r="Q41" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R41" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="S41" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="T41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8" t="s">
+      <c r="U41" s="7"/>
+      <c r="V41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W41" s="9">
+      <c r="W41" s="8">
         <v>1.27</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13">
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>6.3</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>8</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>15</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K42" s="9">
+      <c r="J42" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="8">
         <v>5.79</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>6.31</v>
       </c>
-      <c r="M42" s="12">
-        <v>310</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="M42" s="11">
+        <v>310</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="O42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q42" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R42" s="8" t="s">
+      <c r="Q42" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="S42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="T42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8" t="s">
+      <c r="U42" s="7"/>
+      <c r="V42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="8">
         <v>1.27</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Y42" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13">
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>6.3</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>8</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>15</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K43" s="9">
+      <c r="J43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" s="8">
         <v>5.99</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>6.34</v>
       </c>
-      <c r="M43" s="12">
-        <v>310</v>
-      </c>
-      <c r="N43" s="8" t="s">
+      <c r="M43" s="11">
+        <v>310</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="O43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q43" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R43" s="8" t="s">
+      <c r="Q43" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="S43" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="T43" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8" t="s">
+      <c r="U43" s="7"/>
+      <c r="V43" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W43" s="9">
+      <c r="W43" s="8">
         <v>1.27</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y43" s="13">
+      <c r="Y43" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13">
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>6.3</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>8</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>15</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K44" s="10">
+      <c r="J44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" s="9">
         <v>5</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>5.79</v>
       </c>
-      <c r="M44" s="12">
-        <v>310</v>
-      </c>
-      <c r="N44" s="8" t="s">
+      <c r="M44" s="11">
+        <v>310</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q44" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R44" s="8" t="s">
+      <c r="Q44" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R44" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="S44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8" t="s">
+      <c r="T44" s="7"/>
+      <c r="U44" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V44" s="8"/>
-      <c r="W44" s="9">
+      <c r="V44" s="7"/>
+      <c r="W44" s="8">
         <v>1.27</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13">
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA44" s="13"/>
-    </row>
-    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="AA44" s="12"/>
+    </row>
+    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>6.3</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>8</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>15</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K45" s="9">
+      <c r="J45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45" s="8">
         <v>5.73</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>5.84</v>
       </c>
-      <c r="M45" s="12">
-        <v>310</v>
-      </c>
-      <c r="N45" s="8" t="s">
+      <c r="M45" s="11">
+        <v>310</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="O45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="P45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q45" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R45" s="8" t="s">
+      <c r="Q45" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="S45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="T45" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U45" s="8" t="s">
+      <c r="U45" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V45" s="8" t="s">
+      <c r="V45" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W45" s="8">
         <v>1.27</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y45" s="13">
+      <c r="Y45" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z45" s="13">
+      <c r="Z45" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>6.3</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>8</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>15</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K46" s="9">
+      <c r="J46" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" s="8">
         <v>5.76</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="8">
         <v>5.88</v>
       </c>
-      <c r="M46" s="12">
-        <v>310</v>
-      </c>
-      <c r="N46" s="8" t="s">
+      <c r="M46" s="11">
+        <v>310</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q46" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R46" s="8" t="s">
+      <c r="Q46" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T46" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8" t="s">
+      <c r="U46" s="7"/>
+      <c r="V46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W46" s="9">
+      <c r="W46" s="8">
         <v>1.27</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Y46" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13">
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>6.3</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>8</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>15</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K47" s="9">
+      <c r="J47" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K47" s="8">
         <v>5.66</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <v>6</v>
       </c>
-      <c r="M47" s="12">
-        <v>310</v>
-      </c>
-      <c r="N47" s="8" t="s">
+      <c r="M47" s="11">
+        <v>310</v>
+      </c>
+      <c r="N47" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q47" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R47" s="8" t="s">
+      <c r="Q47" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="S47" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="T47" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8" t="s">
+      <c r="U47" s="7"/>
+      <c r="V47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="8">
         <v>1.27</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y47" s="13">
+      <c r="Y47" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13">
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>6.3</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>8</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>15</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="J48" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K48" s="8">
         <v>5.67</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="8">
         <v>6.21</v>
       </c>
-      <c r="M48" s="12">
-        <v>310</v>
-      </c>
-      <c r="N48" s="8" t="s">
+      <c r="M48" s="11">
+        <v>310</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P48" s="8" t="s">
+      <c r="P48" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q48" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R48" s="8" t="s">
+      <c r="Q48" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R48" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S48" s="8" t="s">
+      <c r="S48" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="T48" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8" t="s">
+      <c r="U48" s="7"/>
+      <c r="V48" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="8">
         <v>1.27</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y48" s="13">
+      <c r="Y48" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13">
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>6.3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>8</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>15</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K49" s="9">
+      <c r="J49" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K49" s="8">
         <v>5.86</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="8">
         <v>6.28</v>
       </c>
-      <c r="M49" s="12">
-        <v>310</v>
-      </c>
-      <c r="N49" s="8" t="s">
+      <c r="M49" s="11">
+        <v>310</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P49" s="8" t="s">
+      <c r="P49" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q49" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R49" s="8" t="s">
+      <c r="Q49" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R49" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S49" s="8" t="s">
+      <c r="S49" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T49" s="8" t="s">
+      <c r="T49" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8" t="s">
+      <c r="U49" s="7"/>
+      <c r="V49" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="8">
         <v>1.27</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y49" s="13">
+      <c r="Y49" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13">
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>6.3</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>8</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>15</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K50" s="9">
+      <c r="J50" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K50" s="8">
         <v>5.98</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>6.37</v>
       </c>
-      <c r="M50" s="12">
-        <v>310</v>
-      </c>
-      <c r="N50" s="8" t="s">
+      <c r="M50" s="11">
+        <v>310</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="P50" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q50" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R50" s="8" t="s">
+      <c r="Q50" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R50" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S50" s="8" t="s">
+      <c r="S50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="T50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8" t="s">
+      <c r="U50" s="7"/>
+      <c r="V50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="8">
         <v>1.27</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y50" s="13">
+      <c r="Y50" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13">
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>6.3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>8</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>15</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K51" s="9">
+      <c r="J51" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K51" s="8">
         <v>5.65</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="8">
         <v>5.41</v>
       </c>
-      <c r="M51" s="12">
-        <v>310</v>
-      </c>
-      <c r="N51" s="8" t="s">
+      <c r="M51" s="11">
+        <v>310</v>
+      </c>
+      <c r="N51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="O51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q51" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R51" s="8" t="s">
+      <c r="Q51" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S51" s="8" t="s">
+      <c r="S51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T51" s="8" t="s">
+      <c r="T51" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="U51" s="8" t="s">
+      <c r="U51" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V51" s="8"/>
-      <c r="W51" s="9">
+      <c r="V51" s="7"/>
+      <c r="W51" s="8">
         <v>1.27</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Y51" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z51" s="13">
+      <c r="Z51" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA51" s="13"/>
-    </row>
-    <row r="52" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="AA51" s="12"/>
+    </row>
+    <row r="52" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>6.3</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>8</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <v>15</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K52" s="9">
+      <c r="J52" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" s="8">
         <v>5.73</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="8">
         <v>5.24</v>
       </c>
-      <c r="M52" s="12">
-        <v>310</v>
-      </c>
-      <c r="N52" s="8" t="s">
+      <c r="M52" s="11">
+        <v>310</v>
+      </c>
+      <c r="N52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="O52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q52" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R52" s="8" t="s">
+      <c r="Q52" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R52" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S52" s="8" t="s">
+      <c r="S52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="T52" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="U52" s="8" t="s">
+      <c r="U52" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="V52" s="8"/>
-      <c r="W52" s="9">
+      <c r="V52" s="7"/>
+      <c r="W52" s="8">
         <v>1.27</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="12">
         <v>1.86</v>
       </c>
-      <c r="Y52" s="13">
+      <c r="Y52" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z52" s="13">
+      <c r="Z52" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="AA52" s="13"/>
-    </row>
-    <row r="53" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="AA52" s="12"/>
+    </row>
+    <row r="53" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>15.5</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>8</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>15</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="8">
         <v>5.9</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="8">
         <v>5.62</v>
       </c>
-      <c r="M53" s="12">
-        <v>310</v>
-      </c>
-      <c r="N53" s="8" t="s">
+      <c r="M53" s="11">
+        <v>310</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="O53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="P53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R53" s="8" t="s">
+      <c r="Q53" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S53" s="8" t="s">
+      <c r="S53" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="9">
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="8">
         <v>1.23</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-    </row>
-    <row r="54" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+    </row>
+    <row r="54" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>15.5</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>8</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <v>15</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="8">
         <v>5.87</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="8">
         <v>5.54</v>
       </c>
-      <c r="M54" s="12">
-        <v>310</v>
-      </c>
-      <c r="N54" s="8" t="s">
+      <c r="M54" s="11">
+        <v>310</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="P54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R54" s="8" t="s">
+      <c r="Q54" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R54" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S54" s="8" t="s">
+      <c r="S54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="9">
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="8">
         <v>1.23</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-    </row>
-    <row r="55" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+    </row>
+    <row r="55" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>15.5</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>8</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <v>15</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="8">
         <v>5.85</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="8">
         <v>5.51</v>
       </c>
-      <c r="M55" s="12">
-        <v>310</v>
-      </c>
-      <c r="N55" s="8" t="s">
+      <c r="M55" s="11">
+        <v>310</v>
+      </c>
+      <c r="N55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="O55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="P55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R55" s="8" t="s">
+      <c r="Q55" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S55" s="8" t="s">
+      <c r="S55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="9">
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="8">
         <v>1.23</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-    </row>
-    <row r="56" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+    </row>
+    <row r="56" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>197</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>15.5</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>8</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>15</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="8">
         <v>5.89</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="8">
         <v>5.7</v>
       </c>
-      <c r="M56" s="12">
-        <v>310</v>
-      </c>
-      <c r="N56" s="8" t="s">
+      <c r="M56" s="11">
+        <v>310</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="P56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q56" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R56" s="8" t="s">
+      <c r="Q56" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S56" s="8" t="s">
+      <c r="S56" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="9">
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="8">
         <v>1.23</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-    </row>
-    <row r="57" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+    </row>
+    <row r="57" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>15.5</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>8</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="9">
         <v>15</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="8">
         <v>5.87</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="8">
         <v>5.65</v>
       </c>
-      <c r="M57" s="12">
-        <v>310</v>
-      </c>
-      <c r="N57" s="8" t="s">
+      <c r="M57" s="11">
+        <v>310</v>
+      </c>
+      <c r="N57" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="P57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q57" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R57" s="8" t="s">
+      <c r="Q57" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S57" s="8" t="s">
+      <c r="S57" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="9">
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="8">
         <v>1.23</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="12">
         <v>1.98</v>
       </c>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-    </row>
-    <row r="58" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+    </row>
+    <row r="58" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>11.5</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <v>8</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <v>15</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9">
+      <c r="K58" s="8"/>
+      <c r="L58" s="8">
         <v>5.63</v>
       </c>
-      <c r="M58" s="12">
-        <v>310</v>
-      </c>
-      <c r="N58" s="8" t="s">
+      <c r="M58" s="11">
+        <v>310</v>
+      </c>
+      <c r="N58" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="P58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q58" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R58" s="8" t="s">
+      <c r="Q58" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="11" t="s">
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-    </row>
-    <row r="59" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+    </row>
+    <row r="59" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>11.5</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <v>8</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <v>15</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9">
+      <c r="K59" s="8"/>
+      <c r="L59" s="8">
         <v>5.53</v>
       </c>
-      <c r="M59" s="12">
-        <v>310</v>
-      </c>
-      <c r="N59" s="8" t="s">
+      <c r="M59" s="11">
+        <v>310</v>
+      </c>
+      <c r="N59" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="O59" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="P59" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q59" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R59" s="8" t="s">
+      <c r="Q59" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R59" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="11" t="s">
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-    </row>
-    <row r="60" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+    </row>
+    <row r="60" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>210</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>11.5</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <v>8</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="9">
         <v>15</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8">
         <v>5.53</v>
       </c>
-      <c r="M60" s="12">
-        <v>310</v>
-      </c>
-      <c r="N60" s="8" t="s">
+      <c r="M60" s="11">
+        <v>310</v>
+      </c>
+      <c r="N60" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="O60" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="P60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q60" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R60" s="8" t="s">
+      <c r="Q60" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R60" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="11" t="s">
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-    </row>
-    <row r="61" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+    </row>
+    <row r="61" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>11.5</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>8</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="9">
         <v>15</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="8">
         <v>7.03</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="8">
         <v>7.18</v>
       </c>
-      <c r="M61" s="12">
-        <v>310</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="M61" s="11">
+        <v>310</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="P61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q61" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R61" s="8" t="s">
+      <c r="Q61" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="11" t="s">
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-    </row>
-    <row r="62" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+    </row>
+    <row r="62" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>11.5</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <v>8</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="9">
         <v>15</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="8">
         <v>6.96</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="8">
         <v>7.29</v>
       </c>
-      <c r="M62" s="12">
-        <v>310</v>
-      </c>
-      <c r="N62" s="8" t="s">
+      <c r="M62" s="11">
+        <v>310</v>
+      </c>
+      <c r="N62" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="O62" s="8" t="s">
+      <c r="O62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="P62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R62" s="8" t="s">
+      <c r="Q62" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="11" t="s">
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13"/>
-    </row>
-    <row r="63" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+    </row>
+    <row r="63" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>11.5</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="9">
         <v>8</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="9">
         <v>15</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="8">
         <v>6.99</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="8">
         <v>7.12</v>
       </c>
-      <c r="M63" s="12">
-        <v>310</v>
-      </c>
-      <c r="N63" s="8" t="s">
+      <c r="M63" s="11">
+        <v>310</v>
+      </c>
+      <c r="N63" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O63" s="8" t="s">
+      <c r="O63" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="P63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q63" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R63" s="8" t="s">
+      <c r="Q63" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R63" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="11" t="s">
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-    </row>
-    <row r="64" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+    </row>
+    <row r="64" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>11.5</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="9">
         <v>8</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="9">
         <v>15</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="8">
         <v>6.87</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="8">
         <v>6.92</v>
       </c>
-      <c r="M64" s="12">
-        <v>310</v>
-      </c>
-      <c r="N64" s="8" t="s">
+      <c r="M64" s="11">
+        <v>310</v>
+      </c>
+      <c r="N64" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="O64" s="8" t="s">
+      <c r="O64" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="P64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q64" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R64" s="8" t="s">
+      <c r="Q64" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="11" t="s">
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-    </row>
-    <row r="65" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+    </row>
+    <row r="65" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>11.5</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="9">
         <v>8</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="9">
         <v>15</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="8">
         <v>7.07</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="8">
         <v>7.15</v>
       </c>
-      <c r="M65" s="12">
-        <v>310</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="M65" s="11">
+        <v>310</v>
+      </c>
+      <c r="N65" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O65" s="8" t="s">
+      <c r="O65" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P65" s="8" t="s">
+      <c r="P65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q65" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R65" s="8" t="s">
+      <c r="Q65" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="11" t="s">
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="13"/>
-    </row>
-    <row r="66" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+    </row>
+    <row r="66" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>11.5</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="9">
         <v>8</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <f t="shared" ref="F66:F77" si="2">E66*D66</f>
         <v>92</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="9">
         <v>15</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="8">
         <v>5.81</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="8">
         <v>5.86</v>
       </c>
-      <c r="M66" s="12">
-        <v>310</v>
-      </c>
-      <c r="N66" s="8" t="s">
+      <c r="M66" s="11">
+        <v>310</v>
+      </c>
+      <c r="N66" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="O66" s="8" t="s">
+      <c r="O66" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q66" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R66" s="8" t="s">
+      <c r="Q66" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="11" t="s">
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="13"/>
-    </row>
-    <row r="67" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+    </row>
+    <row r="67" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>227</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>11.5</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="9">
         <v>8</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="9">
         <v>15</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="8">
         <v>5.9</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="8">
         <v>5.81</v>
       </c>
-      <c r="M67" s="12">
-        <v>310</v>
-      </c>
-      <c r="N67" s="8" t="s">
+      <c r="M67" s="11">
+        <v>310</v>
+      </c>
+      <c r="N67" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="O67" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P67" s="8" t="s">
+      <c r="P67" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q67" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R67" s="8" t="s">
+      <c r="Q67" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R67" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="11" t="s">
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="13"/>
-    </row>
-    <row r="68" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+    </row>
+    <row r="68" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>11.5</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>8</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="9">
         <v>15</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="8">
         <v>5.84</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="8">
         <v>3.92</v>
       </c>
-      <c r="M68" s="12">
-        <v>310</v>
-      </c>
-      <c r="N68" s="8" t="s">
+      <c r="M68" s="11">
+        <v>310</v>
+      </c>
+      <c r="N68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O68" s="8" t="s">
+      <c r="O68" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P68" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q68" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R68" s="8" t="s">
+      <c r="Q68" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R68" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="11" t="s">
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-    </row>
-    <row r="69" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+    </row>
+    <row r="69" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>248</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>247</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>17.5</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="9">
         <v>8</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <f t="shared" ref="F69" si="3">E69*D69</f>
         <v>140</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H69" s="10">
+      <c r="G69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H69" s="9">
         <v>1</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="9">
         <v>11</v>
       </c>
-      <c r="J69" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="12">
-        <v>310</v>
-      </c>
-      <c r="N69" s="8" t="s">
+      <c r="J69" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="11">
+        <v>310</v>
+      </c>
+      <c r="N69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P69" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q69" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="13"/>
-    </row>
-    <row r="70" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="P69" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+    </row>
+    <row r="70" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>11.5</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="9">
         <v>8</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="9">
         <v>15</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="8">
         <v>7.08</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="8">
         <v>7.16</v>
       </c>
-      <c r="M70" s="12">
-        <v>310</v>
-      </c>
-      <c r="N70" s="8" t="s">
+      <c r="M70" s="11">
+        <v>310</v>
+      </c>
+      <c r="N70" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="O70" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="P70" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q70" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R70" s="8" t="s">
+      <c r="Q70" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R70" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="11" t="s">
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-    </row>
-    <row r="71" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+    </row>
+    <row r="71" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>236</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>11.5</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="9">
         <v>8</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="9">
         <v>15</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="8">
         <v>6.83</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="8">
         <v>6.89</v>
       </c>
-      <c r="M71" s="12">
-        <v>310</v>
-      </c>
-      <c r="N71" s="8" t="s">
+      <c r="M71" s="11">
+        <v>310</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q71" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R71" s="8" t="s">
+      <c r="Q71" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="11" t="s">
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-    </row>
-    <row r="72" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+    </row>
+    <row r="72" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
         <v>249</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>17.5</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="9">
         <v>8</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <f t="shared" ref="F72" si="4">E72*D72</f>
         <v>140</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H72" s="10">
+      <c r="G72" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="9">
         <v>1</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="11">
-        <v>4.7</v>
-      </c>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="12">
-        <v>310</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="O72" s="8" t="s">
+      <c r="I72" s="9"/>
+      <c r="J72" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="11">
+        <v>310</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="O72" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P72" s="8" t="s">
+      <c r="P72" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R72" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="Q72" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-    </row>
-    <row r="73" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+    </row>
+    <row r="73" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>11.5</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="9">
         <v>8</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="9">
         <v>15</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="8">
         <v>7.12</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="8">
         <v>7.23</v>
       </c>
-      <c r="M73" s="12">
-        <v>310</v>
-      </c>
-      <c r="N73" s="8" t="s">
+      <c r="M73" s="11">
+        <v>310</v>
+      </c>
+      <c r="N73" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="O73" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P73" s="8" t="s">
+      <c r="P73" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q73" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R73" s="8" t="s">
+      <c r="Q73" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R73" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="11" t="s">
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13"/>
-    </row>
-    <row r="74" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+    </row>
+    <row r="74" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>240</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>11.5</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="9">
         <v>8</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="9">
         <v>15</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="8">
         <v>5.89</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="8">
         <v>4.09</v>
       </c>
-      <c r="M74" s="12">
-        <v>310</v>
-      </c>
-      <c r="N74" s="8" t="s">
+      <c r="M74" s="11">
+        <v>310</v>
+      </c>
+      <c r="N74" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="O74" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P74" s="8" t="s">
+      <c r="P74" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q74" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R74" s="8" t="s">
+      <c r="Q74" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R74" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="11" t="s">
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-    </row>
-    <row r="75" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+    </row>
+    <row r="75" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>11.5</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>8</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="9">
         <v>15</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="10">
         <v>6.6529999999999996</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="8">
         <v>5.93</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="8">
         <v>5.9</v>
       </c>
-      <c r="M75" s="12">
-        <v>310</v>
-      </c>
-      <c r="N75" s="8" t="s">
+      <c r="M75" s="11">
+        <v>310</v>
+      </c>
+      <c r="N75" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P75" s="8" t="s">
+      <c r="P75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q75" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R75" s="8" t="s">
+      <c r="Q75" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R75" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="11" t="s">
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="13"/>
-    </row>
-    <row r="76" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+    </row>
+    <row r="76" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>17.5</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="9">
         <v>8</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>6</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="9">
         <v>15</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="10">
         <v>2.323</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8">
         <v>5.23</v>
       </c>
-      <c r="M76" s="12">
-        <v>310</v>
-      </c>
-      <c r="N76" s="8" t="s">
+      <c r="M76" s="11">
+        <v>310</v>
+      </c>
+      <c r="N76" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O76" s="8" t="s">
+      <c r="O76" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P76" s="8" t="s">
+      <c r="P76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q76" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R76" s="8" t="s">
+      <c r="Q76" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R76" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="11">
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="10">
         <v>1.2010000000000001</v>
       </c>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="13"/>
-    </row>
-    <row r="77" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+    </row>
+    <row r="77" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>246</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>17.5</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="9">
         <v>8</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>6</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <v>15</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="10">
         <v>2.323</v>
       </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9">
+      <c r="K77" s="8"/>
+      <c r="L77" s="8">
         <v>5.15</v>
       </c>
-      <c r="M77" s="12">
-        <v>310</v>
-      </c>
-      <c r="N77" s="8" t="s">
+      <c r="M77" s="11">
+        <v>310</v>
+      </c>
+      <c r="N77" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O77" s="8" t="s">
+      <c r="O77" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P77" s="8" t="s">
+      <c r="P77" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q77" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="R77" s="8" t="s">
+      <c r="Q77" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="R77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="11">
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="10">
         <v>1.2010000000000001</v>
       </c>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/Data_description_main.xlsx
+++ b/Data/Data_description_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Data_Science\Sem2_Application_Project\MoinCC-AI4metabolomics\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE0DBF-EB2F-4393-AD6B-0C3BDA2D8955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86179E4F-CFD6-4282-95B9-0454D7F09760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6231,9 +6231,7 @@
       <c r="I69" s="9">
         <v>11</v>
       </c>
-      <c r="J69" s="10">
-        <v>4.7</v>
-      </c>
+      <c r="J69" s="10"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="11">
@@ -6427,9 +6425,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="9"/>
-      <c r="J72" s="10">
-        <v>4.7</v>
-      </c>
+      <c r="J72" s="10"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="11">
